--- a/Covid_19_Dataset_and_References/References/54.xlsx
+++ b/Covid_19_Dataset_and_References/References/54.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="64">
   <si>
     <t>Doi</t>
   </si>
@@ -210,6 +210,39 @@
   </si>
   <si>
     <t>[ S.%Singh%null%0,   A.% Khan%null%1,   M.% Chowdhry%null%1,   A. % Chatterjee%null%1]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%3,   Didier%Zanini%NULL%1,   Vincent%Laforge%NULL%1,   Sylvie%Arlotto%NULL%1,   Stephanie%Gentile%NULL%1,   Helene%Mendizabal%NULL%1,   Michael%Finaud%NULL%1,   David%Morel%NULL%1,   Olivier%Quenette%NULL%1,   Priscilla%Malfuson-Clot-Faybesse%NULL%1,   Alain%Midejean%NULL%1,   Phuc%Le-Dinh%NULL%1,   Gérard%Daher%NULL%1,   Berengere%Labarriere%NULL%1,   Anne-Marie%Morel-Roux%NULL%1,   Alain%Coquet%NULL%1,   Patrick%Augier%NULL%1,   Philippe%Parola%NULL%1,   Eric%Chabriere%NULL%1,   Didier%Raoult%NULL%1,   Philippe%Gautret%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[Matthieu%Mahévas%NULL%0,   Viet-Thi%Tran%NULL%2,   Viet-Thi%Tran%NULL%0,   Mathilde%Roumier%NULL%1,   Amélie%Chabrol%NULL%1,   Romain%Paule%NULL%1,   Constance%Guillaud%NULL%1,   Elena%Fois%NULL%1,   Raphael%Lepeule%NULL%1,   Tali-Anne%Szwebel%NULL%1,   François-Xavier%Lescure%NULL%1,   Frédéric%Schlemmer%NULL%1,   Marie%Matignon%NULL%1,   Mehdi%Khellaf%NULL%1,   Etienne%Crickx%NULL%1,   Benjamin%Terrier%NULL%1,   Caroline%Morbieu%NULL%1,   Paul%Legendre%NULL%1,   Julien%Dang%NULL%1,   Yoland%Schoindre%NULL%1,   Jean-Michel%Pawlotsky%NULL%1,   Marc%Michel%NULL%1,   Elodie%Perrodeau%NULL%1,   Nicolas%Carlier%NULL%1,   Nicolas%Roche%NULL%1,   Victoire%de Lastours%NULL%1,   Clément%Ourghanlian%NULL%1,   Solen%Kerneis%NULL%1,   Philippe%Ménager%NULL%1,   Luc%Mouthon%NULL%1,   Etienne%Audureau%NULL%1,   Philippe%Ravaud%NULL%1,   Bertrand%Godeau%NULL%1,   Sébastien%Gallien%NULL%1,   Nathalie%Costedoat-Chalumeau%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Ahmed%Hasan%coreGivesNoEmail%1,  Amir%Lerman%coreGivesNoEmail%1,  Charanjit%Rihal%coreGivesNoEmail%1,  Charles%Cagin%coreGivesNoEmail%1,  Derek%So%coreGivesNoEmail%1,  Erin%Iturriaga%coreGivesNoEmail%1,  Ivan%Chavez%coreGivesNoEmail%1,  J.%Dawn Abbott%coreGivesNoEmail%1,  Jang-Ho%Bae%coreGivesNoEmail%1,  Jean-Francois%Tanguay%coreGivesNoEmail%1,  Kent%Bailey%coreGivesNoEmail%1,  Liewei%Wang%coreGivesNoEmail%1,  Linnea%Baudhuin%coreGivesNoEmail%1,  Malcolm%Bell%coreGivesNoEmail%1,  Mandeep%Sidhu%coreGivesNoEmail%1,  Michael%E. Farkouh%coreGivesNoEmail%1,  Myung%Ho Jeong%coreGivesNoEmail%1,  Nancy%Geller%coreGivesNoEmail%1,  Naveen%L. Pereira%coreGivesNoEmail%1,  Paul%Gordon%coreGivesNoEmail%1,  Richard%Weinshilboum%coreGivesNoEmail%1,  Robert%Welsh%coreGivesNoEmail%1,  Ryan%Lennon%coreGivesNoEmail%1,  Shaun%G. Goodman%coreGivesNoEmail%1,  Verghese%Mathew%coreGivesNoEmail%1,  Yi-Ping%Fu%coreGivesNoEmail%1,  Yves%Rosenberg%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>[ Li%Yu%null%2,  Li%Yu%null%0]</t>
+  </si>
+  <si>
+    <t>[Joseph%Magagnoli%NULL%1,   Siddharth%Narendran%NULL%1,   Felipe%Pereira%NULL%1,   Tammy H.%Cummings%NULL%1,   James W.%Hardin%NULL%1,   S. Scott%Sutton%NULL%1,   Jayakrishna%Ambati%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ S.%Singh%null%1,    A.% Khan%null%1,    M.% Chowdhry%null%1,    A. % Chatterjee%null%1]</t>
+  </si>
+  <si>
+    <t>_MedBiorxiv</t>
   </si>
 </sst>
 </file>
@@ -520,6 +553,9 @@
       <c r="H1" t="s">
         <v>19</v>
       </c>
+      <c r="I1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -535,7 +571,7 @@
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -545,6 +581,9 @@
       </c>
       <c r="H2" t="s">
         <v>25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="3">
@@ -561,7 +600,7 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
@@ -571,6 +610,9 @@
       </c>
       <c r="H3" t="s">
         <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="4">
@@ -587,16 +629,19 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
         <v>31</v>
+      </c>
+      <c r="I4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="5">
@@ -613,7 +658,7 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -623,6 +668,9 @@
       </c>
       <c r="H5" t="s">
         <v>35</v>
+      </c>
+      <c r="I5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6">
@@ -650,6 +698,9 @@
       <c r="H6" t="s">
         <v>31</v>
       </c>
+      <c r="I6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
@@ -665,7 +716,7 @@
         <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F7" t="s">
         <v>39</v>
@@ -675,6 +726,9 @@
       </c>
       <c r="H7" t="s">
         <v>40</v>
+      </c>
+      <c r="I7" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="8">
@@ -691,16 +745,19 @@
         <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="H8" t="s">
         <v>45</v>
+      </c>
+      <c r="I8" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/54.xlsx
+++ b/Covid_19_Dataset_and_References/References/54.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="88">
   <si>
     <t>Doi</t>
   </si>
@@ -243,6 +243,78 @@
   </si>
   <si>
     <t>_MedBiorxiv</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%3,    Didier%Zanini%NULL%1,    Vincent%Laforge%NULL%1,    Sylvie%Arlotto%NULL%1,    Stephanie%Gentile%NULL%1,    Helene%Mendizabal%NULL%1,    Michael%Finaud%NULL%1,    David%Morel%NULL%1,    Olivier%Quenette%NULL%1,    Priscilla%Malfuson-Clot-Faybesse%NULL%1,    Alain%Midejean%NULL%1,    Phuc%Le-Dinh%NULL%1,    Gérard%Daher%NULL%1,    Berengere%Labarriere%NULL%1,    Anne-Marie%Morel-Roux%NULL%1,    Alain%Coquet%NULL%1,    Patrick%Augier%NULL%1,    Philippe%Parola%NULL%1,    Eric%Chabriere%NULL%1,    Didier%Raoult%NULL%1,    Philippe%Gautret%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Mahévas%NULL%0,    Viet-Thi%Tran%NULL%2,    Viet-Thi%Tran%NULL%0,    Mathilde%Roumier%NULL%1,    Amélie%Chabrol%NULL%1,    Romain%Paule%NULL%1,    Constance%Guillaud%NULL%1,    Elena%Fois%NULL%1,    Raphael%Lepeule%NULL%1,    Tali-Anne%Szwebel%NULL%1,    François-Xavier%Lescure%NULL%1,    Frédéric%Schlemmer%NULL%1,    Marie%Matignon%NULL%1,    Mehdi%Khellaf%NULL%1,    Etienne%Crickx%NULL%1,    Benjamin%Terrier%NULL%1,    Caroline%Morbieu%NULL%1,    Paul%Legendre%NULL%1,    Julien%Dang%NULL%1,    Yoland%Schoindre%NULL%1,    Jean-Michel%Pawlotsky%NULL%1,    Marc%Michel%NULL%1,    Elodie%Perrodeau%NULL%1,    Nicolas%Carlier%NULL%1,    Nicolas%Roche%NULL%1,    Victoire%de Lastours%NULL%1,    Clément%Ourghanlian%NULL%1,    Solen%Kerneis%NULL%1,    Philippe%Ménager%NULL%1,    Luc%Mouthon%NULL%1,    Etienne%Audureau%NULL%1,    Philippe%Ravaud%NULL%1,    Bertrand%Godeau%NULL%1,    Sébastien%Gallien%NULL%1,    Nathalie%Costedoat-Chalumeau%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ahmed%Hasan%coreGivesNoEmail%1,   Amir%Lerman%coreGivesNoEmail%1,   Charanjit%Rihal%coreGivesNoEmail%1,   Charles%Cagin%coreGivesNoEmail%1,   Derek%So%coreGivesNoEmail%1,   Erin%Iturriaga%coreGivesNoEmail%1,   Ivan%Chavez%coreGivesNoEmail%1,   J.%Dawn Abbott%coreGivesNoEmail%1,   Jang-Ho%Bae%coreGivesNoEmail%1,   Jean-Francois%Tanguay%coreGivesNoEmail%1,   Kent%Bailey%coreGivesNoEmail%1,   Liewei%Wang%coreGivesNoEmail%1,   Linnea%Baudhuin%coreGivesNoEmail%1,   Malcolm%Bell%coreGivesNoEmail%1,   Mandeep%Sidhu%coreGivesNoEmail%1,   Michael%E. Farkouh%coreGivesNoEmail%1,   Myung%Ho Jeong%coreGivesNoEmail%1,   Nancy%Geller%coreGivesNoEmail%1,   Naveen%L. Pereira%coreGivesNoEmail%1,   Paul%Gordon%coreGivesNoEmail%1,   Richard%Weinshilboum%coreGivesNoEmail%1,   Robert%Welsh%coreGivesNoEmail%1,   Ryan%Lennon%coreGivesNoEmail%1,   Shaun%G. Goodman%coreGivesNoEmail%1,   Verghese%Mathew%coreGivesNoEmail%1,   Yi-Ping%Fu%coreGivesNoEmail%1,   Yves%Rosenberg%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Li%Yu%null%1,   Li%Yu%null%1]</t>
+  </si>
+  <si>
+    <t>[Joseph%Magagnoli%NULL%1,    Siddharth%Narendran%NULL%1,    Felipe%Pereira%NULL%1,    Tammy H.%Cummings%NULL%1,    James W.%Hardin%NULL%1,    S. Scott%Sutton%NULL%1,    Jayakrishna%Ambati%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ S.%Singh%null%1,     A.% Khan%null%1,     M.% Chowdhry%null%1,     A. % Chatterjee%null%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%3,     Didier%Zanini%NULL%1,     Vincent%Laforge%NULL%1,     Sylvie%Arlotto%NULL%1,     Stephanie%Gentile%NULL%1,     Helene%Mendizabal%NULL%1,     Michael%Finaud%NULL%1,     David%Morel%NULL%1,     Olivier%Quenette%NULL%1,     Priscilla%Malfuson-Clot-Faybesse%NULL%1,     Alain%Midejean%NULL%1,     Phuc%Le-Dinh%NULL%1,     Gérard%Daher%NULL%1,     Berengere%Labarriere%NULL%1,     Anne-Marie%Morel-Roux%NULL%1,     Alain%Coquet%NULL%1,     Patrick%Augier%NULL%1,     Philippe%Parola%NULL%1,     Eric%Chabriere%NULL%1,     Didier%Raoult%NULL%1,     Philippe%Gautret%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Mahévas%NULL%0,     Viet-Thi%Tran%NULL%0,     Viet-Thi%Tran%NULL%0,     Mathilde%Roumier%NULL%0,     Amélie%Chabrol%NULL%0,     Romain%Paule%NULL%0,     Constance%Guillaud%NULL%0,     Elena%Fois%NULL%0,     Raphael%Lepeule%NULL%0,     Tali-Anne%Szwebel%NULL%0,     François-Xavier%Lescure%NULL%0,     Frédéric%Schlemmer%NULL%0,     Marie%Matignon%NULL%0,     Mehdi%Khellaf%NULL%0,     Etienne%Crickx%NULL%0,     Benjamin%Terrier%NULL%0,     Caroline%Morbieu%NULL%0,     Paul%Legendre%NULL%0,     Julien%Dang%NULL%0,     Yoland%Schoindre%NULL%0,     Jean-Michel%Pawlotsky%NULL%0,     Marc%Michel%NULL%0,     Elodie%Perrodeau%NULL%0,     Nicolas%Carlier%NULL%0,     Nicolas%Roche%NULL%0,     Victoire%de Lastours%NULL%0,     Clément%Ourghanlian%NULL%0,     Solen%Kerneis%NULL%0,     Philippe%Ménager%NULL%0,     Luc%Mouthon%NULL%0,     Etienne%Audureau%NULL%0,     Philippe%Ravaud%NULL%0,     Bertrand%Godeau%NULL%0,     Sébastien%Gallien%NULL%0,     Nathalie%Costedoat-Chalumeau%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ahmed%Hasan%coreGivesNoEmail%1,    Amir%Lerman%coreGivesNoEmail%1,    Charanjit%Rihal%coreGivesNoEmail%1,    Charles%Cagin%coreGivesNoEmail%1,    Derek%So%coreGivesNoEmail%1,    Erin%Iturriaga%coreGivesNoEmail%1,    Ivan%Chavez%coreGivesNoEmail%1,    J.%Dawn Abbott%coreGivesNoEmail%1,    Jang-Ho%Bae%coreGivesNoEmail%1,    Jean-Francois%Tanguay%coreGivesNoEmail%1,    Kent%Bailey%coreGivesNoEmail%1,    Liewei%Wang%coreGivesNoEmail%1,    Linnea%Baudhuin%coreGivesNoEmail%1,    Malcolm%Bell%coreGivesNoEmail%1,    Mandeep%Sidhu%coreGivesNoEmail%1,    Michael%E. Farkouh%coreGivesNoEmail%1,    Myung%Ho Jeong%coreGivesNoEmail%1,    Nancy%Geller%coreGivesNoEmail%1,    Naveen%L. Pereira%coreGivesNoEmail%1,    Paul%Gordon%coreGivesNoEmail%1,    Richard%Weinshilboum%coreGivesNoEmail%1,    Robert%Welsh%coreGivesNoEmail%1,    Ryan%Lennon%coreGivesNoEmail%1,    Shaun%G. Goodman%coreGivesNoEmail%1,    Verghese%Mathew%coreGivesNoEmail%1,    Yi-Ping%Fu%coreGivesNoEmail%1,    Yves%Rosenberg%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Li%Yu%null%1,    Li%Yu%null%1]</t>
+  </si>
+  <si>
+    <t>[Joseph%Magagnoli%NULL%1,     Siddharth%Narendran%NULL%1,     Felipe%Pereira%NULL%1,     Tammy H.%Cummings%NULL%1,     James W.%Hardin%NULL%1,     S. Scott%Sutton%NULL%1,     Jayakrishna%Ambati%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ S.%Singh%null%1,      A.% Khan%null%1,      M.% Chowdhry%null%1,      A. % Chatterjee%null%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%3,      Didier%Zanini%NULL%1,      Vincent%Laforge%NULL%1,      Sylvie%Arlotto%NULL%1,      Stephanie%Gentile%NULL%1,      Helene%Mendizabal%NULL%1,      Michael%Finaud%NULL%1,      David%Morel%NULL%1,      Olivier%Quenette%NULL%1,      Priscilla%Malfuson-Clot-Faybesse%NULL%1,      Alain%Midejean%NULL%1,      Phuc%Le-Dinh%NULL%1,      Gérard%Daher%NULL%1,      Berengere%Labarriere%NULL%1,      Anne-Marie%Morel-Roux%NULL%1,      Alain%Coquet%NULL%1,      Patrick%Augier%NULL%1,      Philippe%Parola%NULL%1,      Eric%Chabriere%NULL%1,      Didier%Raoult%NULL%1,      Philippe%Gautret%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Mahévas%NULL%0,      Viet-Thi%Tran%NULL%0,      Viet-Thi%Tran%NULL%0,      Mathilde%Roumier%NULL%0,      Amélie%Chabrol%NULL%0,      Romain%Paule%NULL%0,      Constance%Guillaud%NULL%0,      Elena%Fois%NULL%0,      Raphael%Lepeule%NULL%0,      Tali-Anne%Szwebel%NULL%0,      François-Xavier%Lescure%NULL%0,      Frédéric%Schlemmer%NULL%0,      Marie%Matignon%NULL%0,      Mehdi%Khellaf%NULL%0,      Etienne%Crickx%NULL%0,      Benjamin%Terrier%NULL%0,      Caroline%Morbieu%NULL%0,      Paul%Legendre%NULL%0,      Julien%Dang%NULL%0,      Yoland%Schoindre%NULL%0,      Jean-Michel%Pawlotsky%NULL%0,      Marc%Michel%NULL%0,      Elodie%Perrodeau%NULL%0,      Nicolas%Carlier%NULL%0,      Nicolas%Roche%NULL%0,      Victoire%de Lastours%NULL%0,      Clément%Ourghanlian%NULL%0,      Solen%Kerneis%NULL%0,      Philippe%Ménager%NULL%0,      Luc%Mouthon%NULL%0,      Etienne%Audureau%NULL%0,      Philippe%Ravaud%NULL%0,      Bertrand%Godeau%NULL%0,      Sébastien%Gallien%NULL%0,      Nathalie%Costedoat-Chalumeau%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ahmed%Hasan%coreGivesNoEmail%1,     Amir%Lerman%coreGivesNoEmail%1,     Charanjit%Rihal%coreGivesNoEmail%1,     Charles%Cagin%coreGivesNoEmail%1,     Derek%So%coreGivesNoEmail%1,     Erin%Iturriaga%coreGivesNoEmail%1,     Ivan%Chavez%coreGivesNoEmail%1,     J.%Dawn Abbott%coreGivesNoEmail%1,     Jang-Ho%Bae%coreGivesNoEmail%1,     Jean-Francois%Tanguay%coreGivesNoEmail%1,     Kent%Bailey%coreGivesNoEmail%1,     Liewei%Wang%coreGivesNoEmail%1,     Linnea%Baudhuin%coreGivesNoEmail%1,     Malcolm%Bell%coreGivesNoEmail%1,     Mandeep%Sidhu%coreGivesNoEmail%1,     Michael%E. Farkouh%coreGivesNoEmail%1,     Myung%Ho Jeong%coreGivesNoEmail%1,     Nancy%Geller%coreGivesNoEmail%1,     Naveen%L. Pereira%coreGivesNoEmail%1,     Paul%Gordon%coreGivesNoEmail%1,     Richard%Weinshilboum%coreGivesNoEmail%1,     Robert%Welsh%coreGivesNoEmail%1,     Ryan%Lennon%coreGivesNoEmail%1,     Shaun%G. Goodman%coreGivesNoEmail%1,     Verghese%Mathew%coreGivesNoEmail%1,     Yi-Ping%Fu%coreGivesNoEmail%1,     Yves%Rosenberg%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Li%Yu%null%1,     Li%Yu%null%1]</t>
+  </si>
+  <si>
+    <t>[Joseph%Magagnoli%NULL%1,      Siddharth%Narendran%NULL%1,      Felipe%Pereira%NULL%1,      Tammy H.%Cummings%NULL%1,      James W.%Hardin%NULL%1,      S. Scott%Sutton%NULL%1,      Jayakrishna%Ambati%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ S.%Singh%null%1,       A.% Khan%null%1,       M.% Chowdhry%null%1,       A. % Chatterjee%null%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%3,       Didier%Zanini%NULL%1,       Vincent%Laforge%NULL%1,       Sylvie%Arlotto%NULL%1,       Stephanie%Gentile%NULL%1,       Helene%Mendizabal%NULL%1,       Michael%Finaud%NULL%1,       David%Morel%NULL%1,       Olivier%Quenette%NULL%1,       Priscilla%Malfuson-Clot-Faybesse%NULL%1,       Alain%Midejean%NULL%1,       Phuc%Le-Dinh%NULL%1,       Gérard%Daher%NULL%1,       Berengere%Labarriere%NULL%1,       Anne-Marie%Morel-Roux%NULL%1,       Alain%Coquet%NULL%1,       Patrick%Augier%NULL%1,       Philippe%Parola%NULL%1,       Eric%Chabriere%NULL%1,       Didier%Raoult%NULL%1,       Philippe%Gautret%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Mahévas%NULL%0,       Viet-Thi%Tran%NULL%0,       Viet-Thi%Tran%NULL%0,       Mathilde%Roumier%NULL%0,       Amélie%Chabrol%NULL%0,       Romain%Paule%NULL%0,       Constance%Guillaud%NULL%0,       Elena%Fois%NULL%0,       Raphael%Lepeule%NULL%0,       Tali-Anne%Szwebel%NULL%0,       François-Xavier%Lescure%NULL%0,       Frédéric%Schlemmer%NULL%0,       Marie%Matignon%NULL%0,       Mehdi%Khellaf%NULL%0,       Etienne%Crickx%NULL%0,       Benjamin%Terrier%NULL%0,       Caroline%Morbieu%NULL%0,       Paul%Legendre%NULL%0,       Julien%Dang%NULL%0,       Yoland%Schoindre%NULL%0,       Jean-Michel%Pawlotsky%NULL%0,       Marc%Michel%NULL%0,       Elodie%Perrodeau%NULL%0,       Nicolas%Carlier%NULL%0,       Nicolas%Roche%NULL%0,       Victoire%de Lastours%NULL%0,       Clément%Ourghanlian%NULL%0,       Solen%Kerneis%NULL%0,       Philippe%Ménager%NULL%0,       Luc%Mouthon%NULL%0,       Etienne%Audureau%NULL%0,       Philippe%Ravaud%NULL%0,       Bertrand%Godeau%NULL%0,       Sébastien%Gallien%NULL%0,       Nathalie%Costedoat-Chalumeau%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ahmed%Hasan%coreGivesNoEmail%1,      Amir%Lerman%coreGivesNoEmail%1,      Charanjit%Rihal%coreGivesNoEmail%1,      Charles%Cagin%coreGivesNoEmail%1,      Derek%So%coreGivesNoEmail%1,      Erin%Iturriaga%coreGivesNoEmail%1,      Ivan%Chavez%coreGivesNoEmail%1,      J.%Dawn Abbott%coreGivesNoEmail%1,      Jang-Ho%Bae%coreGivesNoEmail%1,      Jean-Francois%Tanguay%coreGivesNoEmail%1,      Kent%Bailey%coreGivesNoEmail%1,      Liewei%Wang%coreGivesNoEmail%1,      Linnea%Baudhuin%coreGivesNoEmail%1,      Malcolm%Bell%coreGivesNoEmail%1,      Mandeep%Sidhu%coreGivesNoEmail%1,      Michael%E. Farkouh%coreGivesNoEmail%1,      Myung%Ho Jeong%coreGivesNoEmail%1,      Nancy%Geller%coreGivesNoEmail%1,      Naveen%L. Pereira%coreGivesNoEmail%1,      Paul%Gordon%coreGivesNoEmail%1,      Richard%Weinshilboum%coreGivesNoEmail%1,      Robert%Welsh%coreGivesNoEmail%1,      Ryan%Lennon%coreGivesNoEmail%1,      Shaun%G. Goodman%coreGivesNoEmail%1,      Verghese%Mathew%coreGivesNoEmail%1,      Yi-Ping%Fu%coreGivesNoEmail%1,      Yves%Rosenberg%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Li%Yu%null%1,      Li%Yu%null%1]</t>
+  </si>
+  <si>
+    <t>[Joseph%Magagnoli%NULL%1,       Siddharth%Narendran%NULL%1,       Felipe%Pereira%NULL%1,       Tammy H.%Cummings%NULL%1,       James W.%Hardin%NULL%1,       S. Scott%Sutton%NULL%1,       Jayakrishna%Ambati%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ S.%Singh%null%1,        A.% Khan%null%1,        M.% Chowdhry%null%1,        A. % Chatterjee%null%1]</t>
   </si>
 </sst>
 </file>
@@ -571,7 +643,7 @@
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -600,7 +672,7 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
@@ -629,13 +701,13 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
         <v>31</v>
@@ -658,7 +730,7 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -716,7 +788,7 @@
         <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="F7" t="s">
         <v>39</v>
@@ -745,7 +817,7 @@
         <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>

--- a/Covid_19_Dataset_and_References/References/54.xlsx
+++ b/Covid_19_Dataset_and_References/References/54.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="106">
   <si>
     <t>Doi</t>
   </si>
@@ -315,6 +315,71 @@
   </si>
   <si>
     <t>[ S.%Singh%null%1,        A.% Khan%null%1,        M.% Chowdhry%null%1,        A. % Chatterjee%null%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%3,        Didier%Zanini%NULL%1,        Vincent%Laforge%NULL%1,        Sylvie%Arlotto%NULL%1,        Stephanie%Gentile%NULL%1,        Helene%Mendizabal%NULL%1,        Michael%Finaud%NULL%1,        David%Morel%NULL%1,        Olivier%Quenette%NULL%1,        Priscilla%Malfuson-Clot-Faybesse%NULL%1,        Alain%Midejean%NULL%1,        Phuc%Le-Dinh%NULL%1,        Gérard%Daher%NULL%1,        Berengere%Labarriere%NULL%1,        Anne-Marie%Morel-Roux%NULL%1,        Alain%Coquet%NULL%1,        Patrick%Augier%NULL%1,        Philippe%Parola%NULL%2,        Eric%Chabriere%NULL%1,        Didier%Raoult%NULL%2,        Philippe%Gautret%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Mahévas%NULL%0,        Viet-Thi%Tran%NULL%0,        Viet-Thi%Tran%NULL%0,        Mathilde%Roumier%NULL%0,        Amélie%Chabrol%NULL%0,        Romain%Paule%NULL%0,        Constance%Guillaud%NULL%0,        Elena%Fois%NULL%0,        Raphael%Lepeule%NULL%0,        Tali-Anne%Szwebel%NULL%0,        François-Xavier%Lescure%NULL%0,        Frédéric%Schlemmer%NULL%0,        Marie%Matignon%NULL%0,        Mehdi%Khellaf%NULL%0,        Etienne%Crickx%NULL%0,        Benjamin%Terrier%NULL%0,        Caroline%Morbieu%NULL%0,        Paul%Legendre%NULL%0,        Julien%Dang%NULL%0,        Yoland%Schoindre%NULL%0,        Jean-Michel%Pawlotsky%NULL%0,        Marc%Michel%NULL%0,        Elodie%Perrodeau%NULL%0,        Nicolas%Carlier%NULL%0,        Nicolas%Roche%NULL%0,        Victoire%de Lastours%NULL%0,        Clément%Ourghanlian%NULL%0,        Solen%Kerneis%NULL%0,        Philippe%Ménager%NULL%0,        Luc%Mouthon%NULL%0,        Etienne%Audureau%NULL%0,        Philippe%Ravaud%NULL%0,        Bertrand%Godeau%NULL%0,        Sébastien%Gallien%NULL%0,        Nathalie%Costedoat-Chalumeau%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ahmed%Hasan%coreGivesNoEmail%1,       Amir%Lerman%coreGivesNoEmail%1,       Charanjit%Rihal%coreGivesNoEmail%1,       Charles%Cagin%coreGivesNoEmail%1,       Derek%So%coreGivesNoEmail%1,       Erin%Iturriaga%coreGivesNoEmail%1,       Ivan%Chavez%coreGivesNoEmail%1,       J.%Dawn Abbott%coreGivesNoEmail%1,       Jang-Ho%Bae%coreGivesNoEmail%1,       Jean-Francois%Tanguay%coreGivesNoEmail%1,       Kent%Bailey%coreGivesNoEmail%1,       Liewei%Wang%coreGivesNoEmail%1,       Linnea%Baudhuin%coreGivesNoEmail%1,       Malcolm%Bell%coreGivesNoEmail%1,       Mandeep%Sidhu%coreGivesNoEmail%1,       Michael%E. Farkouh%coreGivesNoEmail%1,       Myung%Ho Jeong%coreGivesNoEmail%1,       Nancy%Geller%coreGivesNoEmail%1,       Naveen%L. Pereira%coreGivesNoEmail%1,       Paul%Gordon%coreGivesNoEmail%1,       Richard%Weinshilboum%coreGivesNoEmail%1,       Robert%Welsh%coreGivesNoEmail%1,       Ryan%Lennon%coreGivesNoEmail%1,       Shaun%G. Goodman%coreGivesNoEmail%1,       Verghese%Mathew%coreGivesNoEmail%1,       Yi-Ping%Fu%coreGivesNoEmail%1,       Yves%Rosenberg%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Li%Yu%null%1,       Li%Yu%null%1]</t>
+  </si>
+  <si>
+    <t>"Early Hydroxychloroquine Is Associated with an Increase of Survival in COVID-19 Patients: An Observational Study"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Background: There is no treatment proven effective against COVID-19. Several drugs with in vitro potential against SARS-CoV-2 virus have been proposed.
+ Hydroxychloroquine has in vitro anti-viral and immunomodulatory activity, but there is no current clinical evidence of its effectiveness changing the outcome of the disease.
+ Methods: We enrolled all 18-85 years old inpatients from Central Defense Hospital &amp;amp;ldquo;G&amp;amp;oacute;mez Ulla&amp;amp;rdquo;, Madrid, Spain, who were hospitalised for COVID-19 and had a definitive outcome (dead or discharged).
+ We used a statistical survival analysis to detect treatment differences associated with in-hospital death.
+ Results: We analysed first 220 medical records.
+ 166 patients met the inclusion criteria.
+ 48,8 % of patients not treated with HCQ died, 22% of those treated with hydroxychloroquine (p=0,002).
+ According to clinical picture at admission, hydroxychloroquine increased the mean cumulative survival in all groups from 1,4 to 1,8 times.
+ This difference was statistically significant in the mild group.
+ Conclusions: in a cohort of 166 patients from 18 to 85 years hospitalised with COVID-19, hydroxychloroquine treatment with 800mg added loading dose increased survival when patients were admitted in early stages of the disease.
+ There was a non-statistically significant trend towards survival in all groups, which will have to be clarified in subsequent studies.
+</t>
+  </si>
+  <si>
+    <t>[Francisco Javier%Membrillo de Novales%xref no email%1, Germ\u00e1n%Ram\u00edrez-Olivencia%xref no email%1, Miriam%Est\u00e9banez%xref no email%1, Bego\u00f1a%de Dios%xref no email%1, Mar\u00eda Dolores%Herrero%xref no email%1, Tatiana%Mata%xref no email%1, Alberto M.%Borobia%xref no email%0, Carlos%Guti\u00e9rrez%xref no email%1, Mar\u00eda%Sim\u00f3n%xref no email%1, Ana%Ochoa%xref no email%1, Yolanda%Mart\u00ednez%xref no email%1, Alejandro%Aguirre%xref no email%1, Francisco de As\u00eds%Alc\u00e1ntara%xref no email%1, Pablo%Fern\u00e1ndez-Gonz\u00e1lez%xref no email%1, Elena%L\u00f3pez%xref no email%1, Sergio%Campos%xref no email%1, Mar\u00eda%Navarro%xref no email%1, Luc\u00eda Elena%Ballester%xref no email%1]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2022-06-05</t>
+  </si>
+  <si>
+    <t>[Joseph%Magagnoli%NULL%1,        Siddharth%Narendran%NULL%1,        Felipe%Pereira%NULL%1,        Tammy H.%Cummings%NULL%1,        James W.%Hardin%NULL%1,        S. Scott%Sutton%NULL%1,        Jayakrishna%Ambati%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ S.%Singh%null%1,         A.% Khan%null%1,         M.% Chowdhry%null%1,         A. % Chatterjee%null%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%3,         Didier%Zanini%NULL%1,         Vincent%Laforge%NULL%1,         Sylvie%Arlotto%NULL%1,         Stephanie%Gentile%NULL%1,         Helene%Mendizabal%NULL%1,         Michael%Finaud%NULL%1,         David%Morel%NULL%1,         Olivier%Quenette%NULL%1,         Priscilla%Malfuson-Clot-Faybesse%NULL%1,         Alain%Midejean%NULL%1,         Phuc%Le-Dinh%NULL%1,         Gérard%Daher%NULL%1,         Berengere%Labarriere%NULL%1,         Anne-Marie%Morel-Roux%NULL%1,         Alain%Coquet%NULL%1,         Patrick%Augier%NULL%1,         Philippe%Parola%NULL%2,         Eric%Chabriere%NULL%1,         Didier%Raoult%NULL%2,         Philippe%Gautret%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Mahévas%NULL%0,         Viet-Thi%Tran%NULL%0,         Viet-Thi%Tran%NULL%0,         Mathilde%Roumier%NULL%0,         Amélie%Chabrol%NULL%0,         Romain%Paule%NULL%0,         Constance%Guillaud%NULL%0,         Elena%Fois%NULL%0,         Raphael%Lepeule%NULL%0,         Tali-Anne%Szwebel%NULL%0,         François-Xavier%Lescure%NULL%0,         Frédéric%Schlemmer%NULL%0,         Marie%Matignon%NULL%0,         Mehdi%Khellaf%NULL%0,         Etienne%Crickx%NULL%0,         Benjamin%Terrier%NULL%0,         Caroline%Morbieu%NULL%0,         Paul%Legendre%NULL%0,         Julien%Dang%NULL%0,         Yoland%Schoindre%NULL%0,         Jean-Michel%Pawlotsky%NULL%0,         Marc%Michel%NULL%0,         Elodie%Perrodeau%NULL%0,         Nicolas%Carlier%NULL%0,         Nicolas%Roche%NULL%0,         Victoire%de Lastours%NULL%0,         Clément%Ourghanlian%NULL%0,         Solen%Kerneis%NULL%0,         Philippe%Ménager%NULL%0,         Luc%Mouthon%NULL%0,         Etienne%Audureau%NULL%0,         Philippe%Ravaud%NULL%0,         Bertrand%Godeau%NULL%0,         Sébastien%Gallien%NULL%0,         Nathalie%Costedoat-Chalumeau%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ahmed%Hasan%coreGivesNoEmail%1,        Amir%Lerman%coreGivesNoEmail%1,        Charanjit%Rihal%coreGivesNoEmail%1,        Charles%Cagin%coreGivesNoEmail%1,        Derek%So%coreGivesNoEmail%1,        Erin%Iturriaga%coreGivesNoEmail%1,        Ivan%Chavez%coreGivesNoEmail%1,        J.%Dawn Abbott%coreGivesNoEmail%1,        Jang-Ho%Bae%coreGivesNoEmail%1,        Jean-Francois%Tanguay%coreGivesNoEmail%1,        Kent%Bailey%coreGivesNoEmail%1,        Liewei%Wang%coreGivesNoEmail%1,        Linnea%Baudhuin%coreGivesNoEmail%1,        Malcolm%Bell%coreGivesNoEmail%1,        Mandeep%Sidhu%coreGivesNoEmail%1,        Michael%E. Farkouh%coreGivesNoEmail%1,        Myung%Ho Jeong%coreGivesNoEmail%1,        Nancy%Geller%coreGivesNoEmail%1,        Naveen%L. Pereira%coreGivesNoEmail%1,        Paul%Gordon%coreGivesNoEmail%1,        Richard%Weinshilboum%coreGivesNoEmail%1,        Robert%Welsh%coreGivesNoEmail%1,        Ryan%Lennon%coreGivesNoEmail%1,        Shaun%G. Goodman%coreGivesNoEmail%1,        Verghese%Mathew%coreGivesNoEmail%1,        Yi-Ping%Fu%coreGivesNoEmail%1,        Yves%Rosenberg%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Li%Yu%null%1,        Li%Yu%null%1]</t>
+  </si>
+  <si>
+    <t>[Francisco Javier%Membrillo de Novales%xref no email%1,  Germ\u00e1n%Ram\u00edrez-Olivencia%xref no email%1,  Miriam%Est\u00e9banez%xref no email%1,  Bego\u00f1a%de Dios%xref no email%1,  Mar\u00eda Dolores%Herrero%xref no email%1,  Tatiana%Mata%xref no email%1,  Alberto M.%Borobia%xref no email%1,  Carlos%Guti\u00e9rrez%xref no email%1,  Mar\u00eda%Sim\u00f3n%xref no email%1,  Ana%Ochoa%xref no email%1,  Yolanda%Mart\u00ednez%xref no email%1,  Alejandro%Aguirre%xref no email%1,  Francisco de As\u00eds%Alc\u00e1ntara%xref no email%1,  Pablo%Fern\u00e1ndez-Gonz\u00e1lez%xref no email%1,  Elena%L\u00f3pez%xref no email%1,  Sergio%Campos%xref no email%1,  Mar\u00eda%Navarro%xref no email%1,  Luc\u00eda Elena%Ballester%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Joseph%Magagnoli%NULL%1,         Siddharth%Narendran%NULL%1,         Felipe%Pereira%NULL%1,         Tammy H.%Cummings%NULL%1,         James W.%Hardin%NULL%1,         S. Scott%Sutton%NULL%1,         Jayakrishna%Ambati%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ S.%Singh%null%1,          A.% Khan%null%1,          M.% Chowdhry%null%1,          A. % Chatterjee%null%1]</t>
   </si>
 </sst>
 </file>
@@ -643,7 +708,7 @@
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -672,7 +737,7 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
@@ -701,7 +766,7 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -730,7 +795,7 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -753,22 +818,22 @@
         <v>43960.0</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="I6" t="s">
         <v>59</v>
@@ -788,7 +853,7 @@
         <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F7" t="s">
         <v>39</v>
@@ -817,7 +882,7 @@
         <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>

--- a/Covid_19_Dataset_and_References/References/54.xlsx
+++ b/Covid_19_Dataset_and_References/References/54.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="119">
   <si>
     <t>Doi</t>
   </si>
@@ -380,6 +380,45 @@
   </si>
   <si>
     <t>[ S.%Singh%null%1,          A.% Khan%null%1,          M.% Chowdhry%null%1,          A. % Chatterjee%null%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%3,          Didier%Zanini%NULL%1,          Vincent%Laforge%NULL%1,          Sylvie%Arlotto%NULL%1,          Stephanie%Gentile%NULL%1,          Helene%Mendizabal%NULL%1,          Michael%Finaud%NULL%1,          David%Morel%NULL%1,          Olivier%Quenette%NULL%1,          Priscilla%Malfuson-Clot-Faybesse%NULL%1,          Alain%Midejean%NULL%1,          Phuc%Le-Dinh%NULL%1,          Gérard%Daher%NULL%1,          Berengere%Labarriere%NULL%1,          Anne-Marie%Morel-Roux%NULL%1,          Alain%Coquet%NULL%1,          Patrick%Augier%NULL%1,          Philippe%Parola%NULL%2,          Eric%Chabriere%NULL%1,          Didier%Raoult%NULL%2,          Philippe%Gautret%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Mahévas%NULL%0,          Viet-Thi%Tran%NULL%0,          Viet-Thi%Tran%NULL%0,          Mathilde%Roumier%NULL%0,          Amélie%Chabrol%NULL%0,          Romain%Paule%NULL%0,          Constance%Guillaud%NULL%0,          Elena%Fois%NULL%0,          Raphael%Lepeule%NULL%0,          Tali-Anne%Szwebel%NULL%0,          François-Xavier%Lescure%NULL%0,          Frédéric%Schlemmer%NULL%0,          Marie%Matignon%NULL%0,          Mehdi%Khellaf%NULL%0,          Etienne%Crickx%NULL%0,          Benjamin%Terrier%NULL%0,          Caroline%Morbieu%NULL%0,          Paul%Legendre%NULL%0,          Julien%Dang%NULL%0,          Yoland%Schoindre%NULL%0,          Jean-Michel%Pawlotsky%NULL%0,          Marc%Michel%NULL%0,          Elodie%Perrodeau%NULL%0,          Nicolas%Carlier%NULL%0,          Nicolas%Roche%NULL%0,          Victoire%de Lastours%NULL%0,          Clément%Ourghanlian%NULL%0,          Solen%Kerneis%NULL%0,          Philippe%Ménager%NULL%0,          Luc%Mouthon%NULL%0,          Etienne%Audureau%NULL%0,          Philippe%Ravaud%NULL%0,          Bertrand%Godeau%NULL%0,          Sébastien%Gallien%NULL%0,          Nathalie%Costedoat-Chalumeau%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ahmed%Hasan%coreGivesNoEmail%1,         Amir%Lerman%coreGivesNoEmail%1,         Charanjit%Rihal%coreGivesNoEmail%1,         Charles%Cagin%coreGivesNoEmail%1,         Derek%So%coreGivesNoEmail%1,         Erin%Iturriaga%coreGivesNoEmail%1,         Ivan%Chavez%coreGivesNoEmail%1,         J.%Dawn Abbott%coreGivesNoEmail%1,         Jang-Ho%Bae%coreGivesNoEmail%1,         Jean-Francois%Tanguay%coreGivesNoEmail%1,         Kent%Bailey%coreGivesNoEmail%1,         Liewei%Wang%coreGivesNoEmail%1,         Linnea%Baudhuin%coreGivesNoEmail%1,         Malcolm%Bell%coreGivesNoEmail%1,         Mandeep%Sidhu%coreGivesNoEmail%1,         Michael%E. Farkouh%coreGivesNoEmail%1,         Myung%Ho Jeong%coreGivesNoEmail%1,         Nancy%Geller%coreGivesNoEmail%1,         Naveen%L. Pereira%coreGivesNoEmail%1,         Paul%Gordon%coreGivesNoEmail%1,         Richard%Weinshilboum%coreGivesNoEmail%1,         Robert%Welsh%coreGivesNoEmail%1,         Ryan%Lennon%coreGivesNoEmail%1,         Shaun%G. Goodman%coreGivesNoEmail%1,         Verghese%Mathew%coreGivesNoEmail%1,         Yi-Ping%Fu%coreGivesNoEmail%1,         Yves%Rosenberg%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Li%Yu%null%1,         Li%Yu%null%1]</t>
+  </si>
+  <si>
+    <t>[Francisco Javier%Membrillo de Novales%xref no email%1,   Germ\u00e1n%Ram\u00edrez-Olivencia%xref no email%1,   Miriam%Est\u00e9banez%xref no email%1,   Bego\u00f1a%de Dios%xref no email%1,   Mar\u00eda Dolores%Herrero%xref no email%1,   Tatiana%Mata%xref no email%1,   Alberto M.%Borobia%xref no email%1,   Carlos%Guti\u00e9rrez%xref no email%1,   Mar\u00eda%Sim\u00f3n%xref no email%1,   Ana%Ochoa%xref no email%1,   Yolanda%Mart\u00ednez%xref no email%1,   Alejandro%Aguirre%xref no email%1,   Francisco de As\u00eds%Alc\u00e1ntara%xref no email%1,   Pablo%Fern\u00e1ndez-Gonz\u00e1lez%xref no email%1,   Elena%L\u00f3pez%xref no email%1,   Sergio%Campos%xref no email%1,   Mar\u00eda%Navarro%xref no email%1,   Luc\u00eda Elena%Ballester%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Joseph%Magagnoli%NULL%1,          Siddharth%Narendran%NULL%1,          Felipe%Pereira%NULL%1,          Tammy H.%Cummings%NULL%1,          James W.%Hardin%NULL%1,          S. Scott%Sutton%NULL%1,          Jayakrishna%Ambati%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ S.%Singh%null%1,           A.% Khan%null%1,           M.% Chowdhry%null%1,           A. % Chatterjee%null%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%3,           Didier%Zanini%NULL%1,           Vincent%Laforge%NULL%1,           Sylvie%Arlotto%NULL%1,           Stephanie%Gentile%NULL%1,           Helene%Mendizabal%NULL%1,           Michael%Finaud%NULL%1,           David%Morel%NULL%1,           Olivier%Quenette%NULL%1,           Priscilla%Malfuson-Clot-Faybesse%NULL%1,           Alain%Midejean%NULL%1,           Phuc%Le-Dinh%NULL%1,           Gérard%Daher%NULL%1,           Berengere%Labarriere%NULL%1,           Anne-Marie%Morel-Roux%NULL%1,           Alain%Coquet%NULL%1,           Patrick%Augier%NULL%1,           Philippe%Parola%NULL%2,           Eric%Chabriere%NULL%1,           Didier%Raoult%NULL%2,           Philippe%Gautret%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Mahévas%NULL%0,           Viet-Thi%Tran%NULL%0,           Viet-Thi%Tran%NULL%0,           Mathilde%Roumier%NULL%0,           Amélie%Chabrol%NULL%0,           Romain%Paule%NULL%0,           Constance%Guillaud%NULL%0,           Elena%Fois%NULL%0,           Raphael%Lepeule%NULL%0,           Tali-Anne%Szwebel%NULL%0,           François-Xavier%Lescure%NULL%0,           Frédéric%Schlemmer%NULL%0,           Marie%Matignon%NULL%0,           Mehdi%Khellaf%NULL%0,           Etienne%Crickx%NULL%0,           Benjamin%Terrier%NULL%0,           Caroline%Morbieu%NULL%0,           Paul%Legendre%NULL%0,           Julien%Dang%NULL%0,           Yoland%Schoindre%NULL%0,           Jean-Michel%Pawlotsky%NULL%0,           Marc%Michel%NULL%0,           Elodie%Perrodeau%NULL%0,           Nicolas%Carlier%NULL%0,           Nicolas%Roche%NULL%0,           Victoire%de Lastours%NULL%0,           Clément%Ourghanlian%NULL%0,           Solen%Kerneis%NULL%0,           Philippe%Ménager%NULL%0,           Luc%Mouthon%NULL%0,           Etienne%Audureau%NULL%0,           Philippe%Ravaud%NULL%0,           Bertrand%Godeau%NULL%0,           Sébastien%Gallien%NULL%0,           Nathalie%Costedoat-Chalumeau%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ahmed%Hasan%coreGivesNoEmail%1,          Amir%Lerman%coreGivesNoEmail%1,          Charanjit%Rihal%coreGivesNoEmail%1,          Charles%Cagin%coreGivesNoEmail%1,          Derek%So%coreGivesNoEmail%1,          Erin%Iturriaga%coreGivesNoEmail%1,          Ivan%Chavez%coreGivesNoEmail%1,          J.%Dawn Abbott%coreGivesNoEmail%1,          Jang-Ho%Bae%coreGivesNoEmail%1,          Jean-Francois%Tanguay%coreGivesNoEmail%1,          Kent%Bailey%coreGivesNoEmail%1,          Liewei%Wang%coreGivesNoEmail%1,          Linnea%Baudhuin%coreGivesNoEmail%1,          Malcolm%Bell%coreGivesNoEmail%1,          Mandeep%Sidhu%coreGivesNoEmail%1,          Michael%E. Farkouh%coreGivesNoEmail%1,          Myung%Ho Jeong%coreGivesNoEmail%1,          Nancy%Geller%coreGivesNoEmail%1,          Naveen%L. Pereira%coreGivesNoEmail%1,          Paul%Gordon%coreGivesNoEmail%1,          Richard%Weinshilboum%coreGivesNoEmail%1,          Robert%Welsh%coreGivesNoEmail%1,          Ryan%Lennon%coreGivesNoEmail%1,          Shaun%G. Goodman%coreGivesNoEmail%1,          Verghese%Mathew%coreGivesNoEmail%1,          Yi-Ping%Fu%coreGivesNoEmail%1,          Yves%Rosenberg%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Francisco Javier%Membrillo de Novales%xref no email%1,    Germ\u00e1n%Ram\u00edrez-Olivencia%xref no email%1,    Miriam%Est\u00e9banez%xref no email%1,    Bego\u00f1a%de Dios%xref no email%1,    Mar\u00eda Dolores%Herrero%xref no email%1,    Tatiana%Mata%xref no email%1,    Alberto M.%Borobia%xref no email%1,    Carlos%Guti\u00e9rrez%xref no email%1,    Mar\u00eda%Sim\u00f3n%xref no email%1,    Ana%Ochoa%xref no email%1,    Yolanda%Mart\u00ednez%xref no email%1,    Alejandro%Aguirre%xref no email%1,    Francisco de As\u00eds%Alc\u00e1ntara%xref no email%1,    Pablo%Fern\u00e1ndez-Gonz\u00e1lez%xref no email%1,    Elena%L\u00f3pez%xref no email%1,    Sergio%Campos%xref no email%1,    Mar\u00eda%Navarro%xref no email%1,    Luc\u00eda Elena%Ballester%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Joseph%Magagnoli%NULL%1,           Siddharth%Narendran%NULL%1,           Felipe%Pereira%NULL%1,           Tammy H.%Cummings%NULL%1,           James W.%Hardin%NULL%1,           S. Scott%Sutton%NULL%1,           Jayakrishna%Ambati%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ S.%Singh%null%1,            A.% Khan%null%1,            M.% Chowdhry%null%1,            A. % Chatterjee%null%1]</t>
   </si>
 </sst>
 </file>
@@ -708,7 +747,7 @@
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -737,7 +776,7 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
@@ -766,7 +805,7 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -795,7 +834,7 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -824,7 +863,7 @@
         <v>93</v>
       </c>
       <c r="E6" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -853,7 +892,7 @@
         <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="F7" t="s">
         <v>39</v>
@@ -882,7 +921,7 @@
         <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>

--- a/Covid_19_Dataset_and_References/References/54.xlsx
+++ b/Covid_19_Dataset_and_References/References/54.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="132">
   <si>
     <t>Doi</t>
   </si>
@@ -419,6 +419,45 @@
   </si>
   <si>
     <t>[ S.%Singh%null%1,            A.% Khan%null%1,            M.% Chowdhry%null%1,            A. % Chatterjee%null%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%3,            Didier%Zanini%NULL%1,            Vincent%Laforge%NULL%1,            Sylvie%Arlotto%NULL%1,            Stephanie%Gentile%NULL%1,            Helene%Mendizabal%NULL%1,            Michael%Finaud%NULL%1,            David%Morel%NULL%1,            Olivier%Quenette%NULL%1,            Priscilla%Malfuson-Clot-Faybesse%NULL%1,            Alain%Midejean%NULL%1,            Phuc%Le-Dinh%NULL%1,            Gérard%Daher%NULL%1,            Berengere%Labarriere%NULL%1,            Anne-Marie%Morel-Roux%NULL%1,            Alain%Coquet%NULL%1,            Patrick%Augier%NULL%1,            Philippe%Parola%NULL%2,            Eric%Chabriere%NULL%1,            Didier%Raoult%NULL%2,            Philippe%Gautret%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Mahévas%NULL%0,            Viet-Thi%Tran%NULL%0,            Viet-Thi%Tran%NULL%0,            Mathilde%Roumier%NULL%0,            Amélie%Chabrol%NULL%0,            Romain%Paule%NULL%0,            Constance%Guillaud%NULL%0,            Elena%Fois%NULL%0,            Raphael%Lepeule%NULL%0,            Tali-Anne%Szwebel%NULL%0,            François-Xavier%Lescure%NULL%0,            Frédéric%Schlemmer%NULL%0,            Marie%Matignon%NULL%0,            Mehdi%Khellaf%NULL%0,            Etienne%Crickx%NULL%0,            Benjamin%Terrier%NULL%0,            Caroline%Morbieu%NULL%0,            Paul%Legendre%NULL%0,            Julien%Dang%NULL%0,            Yoland%Schoindre%NULL%0,            Jean-Michel%Pawlotsky%NULL%0,            Marc%Michel%NULL%0,            Elodie%Perrodeau%NULL%0,            Nicolas%Carlier%NULL%0,            Nicolas%Roche%NULL%0,            Victoire%de Lastours%NULL%0,            Clément%Ourghanlian%NULL%0,            Solen%Kerneis%NULL%0,            Philippe%Ménager%NULL%0,            Luc%Mouthon%NULL%0,            Etienne%Audureau%NULL%0,            Philippe%Ravaud%NULL%0,            Bertrand%Godeau%NULL%0,            Sébastien%Gallien%NULL%0,            Nathalie%Costedoat-Chalumeau%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ahmed%Hasan%coreGivesNoEmail%1,           Amir%Lerman%coreGivesNoEmail%1,           Charanjit%Rihal%coreGivesNoEmail%1,           Charles%Cagin%coreGivesNoEmail%1,           Derek%So%coreGivesNoEmail%1,           Erin%Iturriaga%coreGivesNoEmail%1,           Ivan%Chavez%coreGivesNoEmail%1,           J.%Dawn Abbott%coreGivesNoEmail%1,           Jang-Ho%Bae%coreGivesNoEmail%1,           Jean-Francois%Tanguay%coreGivesNoEmail%1,           Kent%Bailey%coreGivesNoEmail%1,           Liewei%Wang%coreGivesNoEmail%1,           Linnea%Baudhuin%coreGivesNoEmail%1,           Malcolm%Bell%coreGivesNoEmail%1,           Mandeep%Sidhu%coreGivesNoEmail%1,           Michael%E. Farkouh%coreGivesNoEmail%1,           Myung%Ho Jeong%coreGivesNoEmail%1,           Nancy%Geller%coreGivesNoEmail%1,           Naveen%L. Pereira%coreGivesNoEmail%1,           Paul%Gordon%coreGivesNoEmail%1,           Richard%Weinshilboum%coreGivesNoEmail%1,           Robert%Welsh%coreGivesNoEmail%1,           Ryan%Lennon%coreGivesNoEmail%1,           Shaun%G. Goodman%coreGivesNoEmail%1,           Verghese%Mathew%coreGivesNoEmail%1,           Yi-Ping%Fu%coreGivesNoEmail%1,           Yves%Rosenberg%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Li%Yu%null%1]</t>
+  </si>
+  <si>
+    <t>[Francisco Javier%Membrillo de Novales%xref no email%1,     Germ\u00e1n%Ram\u00edrez-Olivencia%xref no email%1,     Miriam%Est\u00e9banez%xref no email%1,     Bego\u00f1a%de Dios%xref no email%1,     Mar\u00eda Dolores%Herrero%xref no email%1,     Tatiana%Mata%xref no email%1,     Alberto M.%Borobia%xref no email%1,     Carlos%Guti\u00e9rrez%xref no email%1,     Mar\u00eda%Sim\u00f3n%xref no email%1,     Ana%Ochoa%xref no email%1,     Yolanda%Mart\u00ednez%xref no email%1,     Alejandro%Aguirre%xref no email%1,     Francisco de As\u00eds%Alc\u00e1ntara%xref no email%1,     Pablo%Fern\u00e1ndez-Gonz\u00e1lez%xref no email%1,     Elena%L\u00f3pez%xref no email%1,     Sergio%Campos%xref no email%1,     Mar\u00eda%Navarro%xref no email%1,     Luc\u00eda Elena%Ballester%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Joseph%Magagnoli%NULL%1,            Siddharth%Narendran%NULL%1,            Felipe%Pereira%NULL%1,            Tammy H.%Cummings%NULL%1,            James W.%Hardin%NULL%1,            S. Scott%Sutton%NULL%1,            Jayakrishna%Ambati%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ S.%Singh%null%1,             A.% Khan%null%1,             M.% Chowdhry%null%1,             A. % Chatterjee%null%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%3,             Didier%Zanini%NULL%1,             Vincent%Laforge%NULL%1,             Sylvie%Arlotto%NULL%1,             Stephanie%Gentile%NULL%1,             Helene%Mendizabal%NULL%1,             Michael%Finaud%NULL%1,             David%Morel%NULL%1,             Olivier%Quenette%NULL%1,             Priscilla%Malfuson-Clot-Faybesse%NULL%1,             Alain%Midejean%NULL%1,             Phuc%Le-Dinh%NULL%1,             Gérard%Daher%NULL%1,             Berengere%Labarriere%NULL%1,             Anne-Marie%Morel-Roux%NULL%1,             Alain%Coquet%NULL%1,             Patrick%Augier%NULL%1,             Philippe%Parola%NULL%2,             Eric%Chabriere%NULL%1,             Didier%Raoult%NULL%2,             Philippe%Gautret%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Mahévas%NULL%0,             Viet-Thi%Tran%NULL%0,             Viet-Thi%Tran%NULL%0,             Mathilde%Roumier%NULL%0,             Amélie%Chabrol%NULL%0,             Romain%Paule%NULL%0,             Constance%Guillaud%NULL%0,             Elena%Fois%NULL%0,             Raphael%Lepeule%NULL%0,             Tali-Anne%Szwebel%NULL%0,             François-Xavier%Lescure%NULL%0,             Frédéric%Schlemmer%NULL%0,             Marie%Matignon%NULL%0,             Mehdi%Khellaf%NULL%0,             Etienne%Crickx%NULL%0,             Benjamin%Terrier%NULL%0,             Caroline%Morbieu%NULL%0,             Paul%Legendre%NULL%0,             Julien%Dang%NULL%0,             Yoland%Schoindre%NULL%0,             Jean-Michel%Pawlotsky%NULL%0,             Marc%Michel%NULL%0,             Elodie%Perrodeau%NULL%0,             Nicolas%Carlier%NULL%0,             Nicolas%Roche%NULL%0,             Victoire%de Lastours%NULL%0,             Clément%Ourghanlian%NULL%0,             Solen%Kerneis%NULL%0,             Philippe%Ménager%NULL%0,             Luc%Mouthon%NULL%0,             Etienne%Audureau%NULL%0,             Philippe%Ravaud%NULL%0,             Bertrand%Godeau%NULL%0,             Sébastien%Gallien%NULL%0,             Nathalie%Costedoat-Chalumeau%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ahmed%Hasan%coreGivesNoEmail%1,            Amir%Lerman%coreGivesNoEmail%1,            Charanjit%Rihal%coreGivesNoEmail%1,            Charles%Cagin%coreGivesNoEmail%1,            Derek%So%coreGivesNoEmail%1,            Erin%Iturriaga%coreGivesNoEmail%1,            Ivan%Chavez%coreGivesNoEmail%1,            J.%Dawn Abbott%coreGivesNoEmail%1,            Jang-Ho%Bae%coreGivesNoEmail%1,            Jean-Francois%Tanguay%coreGivesNoEmail%1,            Kent%Bailey%coreGivesNoEmail%1,            Liewei%Wang%coreGivesNoEmail%1,            Linnea%Baudhuin%coreGivesNoEmail%1,            Malcolm%Bell%coreGivesNoEmail%1,            Mandeep%Sidhu%coreGivesNoEmail%1,            Michael%E. Farkouh%coreGivesNoEmail%1,            Myung%Ho Jeong%coreGivesNoEmail%1,            Nancy%Geller%coreGivesNoEmail%1,            Naveen%L. Pereira%coreGivesNoEmail%1,            Paul%Gordon%coreGivesNoEmail%1,            Richard%Weinshilboum%coreGivesNoEmail%1,            Robert%Welsh%coreGivesNoEmail%1,            Ryan%Lennon%coreGivesNoEmail%1,            Shaun%G. Goodman%coreGivesNoEmail%1,            Verghese%Mathew%coreGivesNoEmail%1,            Yi-Ping%Fu%coreGivesNoEmail%1,            Yves%Rosenberg%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Francisco Javier%Membrillo de Novales%xref no email%1,      Germ\u00e1n%Ram\u00edrez-Olivencia%xref no email%1,      Miriam%Est\u00e9banez%xref no email%1,      Bego\u00f1a%de Dios%xref no email%1,      Mar\u00eda Dolores%Herrero%xref no email%1,      Tatiana%Mata%xref no email%1,      Alberto M.%Borobia%xref no email%1,      Carlos%Guti\u00e9rrez%xref no email%1,      Mar\u00eda%Sim\u00f3n%xref no email%1,      Ana%Ochoa%xref no email%1,      Yolanda%Mart\u00ednez%xref no email%1,      Alejandro%Aguirre%xref no email%1,      Francisco de As\u00eds%Alc\u00e1ntara%xref no email%1,      Pablo%Fern\u00e1ndez-Gonz\u00e1lez%xref no email%1,      Elena%L\u00f3pez%xref no email%1,      Sergio%Campos%xref no email%1,      Mar\u00eda%Navarro%xref no email%1,      Luc\u00eda Elena%Ballester%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Joseph%Magagnoli%NULL%1,             Siddharth%Narendran%NULL%1,             Felipe%Pereira%NULL%1,             Tammy H.%Cummings%NULL%1,             James W.%Hardin%NULL%1,             S. Scott%Sutton%NULL%1,             Jayakrishna%Ambati%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ S.%Singh%null%1,              A.% Khan%null%1,              M.% Chowdhry%null%1,              A. % Chatterjee%null%1]</t>
   </si>
 </sst>
 </file>
@@ -747,7 +786,7 @@
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -776,7 +815,7 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
@@ -805,7 +844,7 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -834,7 +873,7 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>122</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -863,7 +902,7 @@
         <v>93</v>
       </c>
       <c r="E6" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -892,7 +931,7 @@
         <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="F7" t="s">
         <v>39</v>
@@ -921,7 +960,7 @@
         <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>

--- a/Covid_19_Dataset_and_References/References/54.xlsx
+++ b/Covid_19_Dataset_and_References/References/54.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="139">
   <si>
     <t>Doi</t>
   </si>
@@ -458,6 +458,27 @@
   </si>
   <si>
     <t>[ S.%Singh%null%1,              A.% Khan%null%1,              M.% Chowdhry%null%1,              A. % Chatterjee%null%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%3,              Didier%Zanini%NULL%1,              Vincent%Laforge%NULL%1,              Sylvie%Arlotto%NULL%1,              Stephanie%Gentile%NULL%1,              Helene%Mendizabal%NULL%1,              Michael%Finaud%NULL%1,              David%Morel%NULL%1,              Olivier%Quenette%NULL%1,              Priscilla%Malfuson-Clot-Faybesse%NULL%1,              Alain%Midejean%NULL%1,              Phuc%Le-Dinh%NULL%1,              Gérard%Daher%NULL%1,              Berengere%Labarriere%NULL%1,              Anne-Marie%Morel-Roux%NULL%1,              Alain%Coquet%NULL%1,              Patrick%Augier%NULL%1,              Philippe%Parola%NULL%2,              Eric%Chabriere%NULL%1,              Didier%Raoult%NULL%2,              Philippe%Gautret%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Mahévas%NULL%0,              Viet-Thi%Tran%NULL%0,              Viet-Thi%Tran%NULL%0,              Mathilde%Roumier%NULL%0,              Amélie%Chabrol%NULL%0,              Romain%Paule%NULL%0,              Constance%Guillaud%NULL%0,              Elena%Fois%NULL%0,              Raphael%Lepeule%NULL%0,              Tali-Anne%Szwebel%NULL%0,              François-Xavier%Lescure%NULL%0,              Frédéric%Schlemmer%NULL%0,              Marie%Matignon%NULL%0,              Mehdi%Khellaf%NULL%0,              Etienne%Crickx%NULL%0,              Benjamin%Terrier%NULL%0,              Caroline%Morbieu%NULL%0,              Paul%Legendre%NULL%0,              Julien%Dang%NULL%0,              Yoland%Schoindre%NULL%0,              Jean-Michel%Pawlotsky%NULL%0,              Marc%Michel%NULL%0,              Elodie%Perrodeau%NULL%0,              Nicolas%Carlier%NULL%0,              Nicolas%Roche%NULL%0,              Victoire%de Lastours%NULL%0,              Clément%Ourghanlian%NULL%0,              Solen%Kerneis%NULL%0,              Philippe%Ménager%NULL%0,              Luc%Mouthon%NULL%0,              Etienne%Audureau%NULL%0,              Philippe%Ravaud%NULL%0,              Bertrand%Godeau%NULL%0,              Sébastien%Gallien%NULL%0,              Nathalie%Costedoat-Chalumeau%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ahmed%Hasan%coreGivesNoEmail%1,             Amir%Lerman%coreGivesNoEmail%1,             Charanjit%Rihal%coreGivesNoEmail%1,             Charles%Cagin%coreGivesNoEmail%1,             Derek%So%coreGivesNoEmail%1,             Erin%Iturriaga%coreGivesNoEmail%1,             Ivan%Chavez%coreGivesNoEmail%1,             J.%Dawn Abbott%coreGivesNoEmail%1,             Jang-Ho%Bae%coreGivesNoEmail%1,             Jean-Francois%Tanguay%coreGivesNoEmail%1,             Kent%Bailey%coreGivesNoEmail%1,             Liewei%Wang%coreGivesNoEmail%1,             Linnea%Baudhuin%coreGivesNoEmail%1,             Malcolm%Bell%coreGivesNoEmail%1,             Mandeep%Sidhu%coreGivesNoEmail%1,             Michael%E. Farkouh%coreGivesNoEmail%1,             Myung%Ho Jeong%coreGivesNoEmail%1,             Nancy%Geller%coreGivesNoEmail%1,             Naveen%L. Pereira%coreGivesNoEmail%1,             Paul%Gordon%coreGivesNoEmail%1,             Richard%Weinshilboum%coreGivesNoEmail%1,             Robert%Welsh%coreGivesNoEmail%1,             Ryan%Lennon%coreGivesNoEmail%1,             Shaun%G. Goodman%coreGivesNoEmail%1,             Verghese%Mathew%coreGivesNoEmail%1,             Yi-Ping%Fu%coreGivesNoEmail%1,             Yves%Rosenberg%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Francisco Javier%Membrillo de Novales%xref no email%1,       Germ\u00e1n%Ram\u00edrez-Olivencia%xref no email%1,       Miriam%Est\u00e9banez%xref no email%1,       Bego\u00f1a%de Dios%xref no email%1,       Mar\u00eda Dolores%Herrero%xref no email%1,       Tatiana%Mata%xref no email%1,       Alberto M.%Borobia%xref no email%1,       Carlos%Guti\u00e9rrez%xref no email%1,       Mar\u00eda%Sim\u00f3n%xref no email%1,       Ana%Ochoa%xref no email%1,       Yolanda%Mart\u00ednez%xref no email%1,       Alejandro%Aguirre%xref no email%1,       Francisco de As\u00eds%Alc\u00e1ntara%xref no email%1,       Pablo%Fern\u00e1ndez-Gonz\u00e1lez%xref no email%1,       Elena%L\u00f3pez%xref no email%1,       Sergio%Campos%xref no email%1,       Mar\u00eda%Navarro%xref no email%1,       Luc\u00eda Elena%Ballester%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Joseph%Magagnoli%NULL%1,              Siddharth%Narendran%NULL%1,              Felipe%Pereira%NULL%1,              Tammy H.%Cummings%NULL%1,              James W.%Hardin%NULL%1,              S. Scott%Sutton%NULL%1,              Jayakrishna%Ambati%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ S.%Singh%null%1,               A.% Khan%null%1,               M.% Chowdhry%null%1,               A. % Chatterjee%null%1]</t>
+  </si>
+  <si>
+    <t>medrxiv/biorxiv doi</t>
   </si>
 </sst>
 </file>
@@ -786,7 +807,7 @@
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -815,7 +836,7 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
@@ -844,7 +865,7 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -902,7 +923,7 @@
         <v>93</v>
       </c>
       <c r="E6" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -931,7 +952,7 @@
         <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F7" t="s">
         <v>39</v>
@@ -960,13 +981,13 @@
         <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>138</v>
       </c>
       <c r="H8" t="s">
         <v>45</v>

--- a/Covid_19_Dataset_and_References/References/54.xlsx
+++ b/Covid_19_Dataset_and_References/References/54.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="145">
   <si>
     <t>Doi</t>
   </si>
@@ -479,6 +479,24 @@
   </si>
   <si>
     <t>medrxiv/biorxiv doi</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%3,               Didier%Zanini%NULL%1,               Vincent%Laforge%NULL%1,               Sylvie%Arlotto%NULL%1,               Stephanie%Gentile%NULL%1,               Helene%Mendizabal%NULL%1,               Michael%Finaud%NULL%1,               David%Morel%NULL%1,               Olivier%Quenette%NULL%1,               Priscilla%Malfuson-Clot-Faybesse%NULL%1,               Alain%Midejean%NULL%1,               Phuc%Le-Dinh%NULL%1,               Gérard%Daher%NULL%1,               Berengere%Labarriere%NULL%1,               Anne-Marie%Morel-Roux%NULL%1,               Alain%Coquet%NULL%1,               Patrick%Augier%NULL%1,               Philippe%Parola%NULL%2,               Eric%Chabriere%NULL%1,               Didier%Raoult%NULL%2,               Philippe%Gautret%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Mahévas%NULL%0,               Viet-Thi%Tran%NULL%0,               Viet-Thi%Tran%NULL%0,               Mathilde%Roumier%NULL%0,               Amélie%Chabrol%NULL%0,               Romain%Paule%NULL%0,               Constance%Guillaud%NULL%0,               Elena%Fois%NULL%0,               Raphael%Lepeule%NULL%0,               Tali-Anne%Szwebel%NULL%0,               François-Xavier%Lescure%NULL%0,               Frédéric%Schlemmer%NULL%0,               Marie%Matignon%NULL%0,               Mehdi%Khellaf%NULL%0,               Etienne%Crickx%NULL%0,               Benjamin%Terrier%NULL%0,               Caroline%Morbieu%NULL%0,               Paul%Legendre%NULL%0,               Julien%Dang%NULL%0,               Yoland%Schoindre%NULL%0,               Jean-Michel%Pawlotsky%NULL%0,               Marc%Michel%NULL%0,               Elodie%Perrodeau%NULL%0,               Nicolas%Carlier%NULL%0,               Nicolas%Roche%NULL%0,               Victoire%de Lastours%NULL%0,               Clément%Ourghanlian%NULL%0,               Solen%Kerneis%NULL%0,               Philippe%Ménager%NULL%0,               Luc%Mouthon%NULL%0,               Etienne%Audureau%NULL%0,               Philippe%Ravaud%NULL%0,               Bertrand%Godeau%NULL%0,               Sébastien%Gallien%NULL%0,               Nathalie%Costedoat-Chalumeau%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ahmed%Hasan%coreGivesNoEmail%1,              Amir%Lerman%coreGivesNoEmail%1,              Charanjit%Rihal%coreGivesNoEmail%1,              Charles%Cagin%coreGivesNoEmail%1,              Derek%So%coreGivesNoEmail%1,              Erin%Iturriaga%coreGivesNoEmail%1,              Ivan%Chavez%coreGivesNoEmail%1,              J.%Dawn Abbott%coreGivesNoEmail%1,              Jang-Ho%Bae%coreGivesNoEmail%1,              Jean-Francois%Tanguay%coreGivesNoEmail%1,              Kent%Bailey%coreGivesNoEmail%1,              Liewei%Wang%coreGivesNoEmail%1,              Linnea%Baudhuin%coreGivesNoEmail%1,              Malcolm%Bell%coreGivesNoEmail%1,              Mandeep%Sidhu%coreGivesNoEmail%1,              Michael%E. Farkouh%coreGivesNoEmail%1,              Myung%Ho Jeong%coreGivesNoEmail%1,              Nancy%Geller%coreGivesNoEmail%1,              Naveen%L. Pereira%coreGivesNoEmail%1,              Paul%Gordon%coreGivesNoEmail%1,              Richard%Weinshilboum%coreGivesNoEmail%1,              Robert%Welsh%coreGivesNoEmail%1,              Ryan%Lennon%coreGivesNoEmail%1,              Shaun%G. Goodman%coreGivesNoEmail%1,              Verghese%Mathew%coreGivesNoEmail%1,              Yi-Ping%Fu%coreGivesNoEmail%1,              Yves%Rosenberg%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Francisco Javier%Membrillo de Novales%xref no email%1,        Germ\u00e1n%Ram\u00edrez-Olivencia%xref no email%1,        Miriam%Est\u00e9banez%xref no email%1,        Bego\u00f1a%de Dios%xref no email%1,        Mar\u00eda Dolores%Herrero%xref no email%1,        Tatiana%Mata%xref no email%1,        Alberto M.%Borobia%xref no email%1,        Carlos%Guti\u00e9rrez%xref no email%1,        Mar\u00eda%Sim\u00f3n%xref no email%1,        Ana%Ochoa%xref no email%1,        Yolanda%Mart\u00ednez%xref no email%1,        Alejandro%Aguirre%xref no email%1,        Francisco de As\u00eds%Alc\u00e1ntara%xref no email%1,        Pablo%Fern\u00e1ndez-Gonz\u00e1lez%xref no email%1,        Elena%L\u00f3pez%xref no email%1,        Sergio%Campos%xref no email%1,        Mar\u00eda%Navarro%xref no email%1,        Luc\u00eda Elena%Ballester%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Joseph%Magagnoli%NULL%1,               Siddharth%Narendran%NULL%1,               Felipe%Pereira%NULL%1,               Tammy H.%Cummings%NULL%1,               James W.%Hardin%NULL%1,               S. Scott%Sutton%NULL%1,               Jayakrishna%Ambati%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ S.%Singh%null%1,                A.% Khan%null%1,                M.% Chowdhry%null%1,                A. % Chatterjee%null%1]</t>
   </si>
 </sst>
 </file>
@@ -807,7 +825,7 @@
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -836,7 +854,7 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
@@ -865,7 +883,7 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -923,7 +941,7 @@
         <v>93</v>
       </c>
       <c r="E6" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -952,7 +970,7 @@
         <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="F7" t="s">
         <v>39</v>
@@ -981,7 +999,7 @@
         <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>

--- a/Covid_19_Dataset_and_References/References/54.xlsx
+++ b/Covid_19_Dataset_and_References/References/54.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="157">
   <si>
     <t>Doi</t>
   </si>
@@ -497,6 +497,42 @@
   </si>
   <si>
     <t>[ S.%Singh%null%1,                A.% Khan%null%1,                M.% Chowdhry%null%1,                A. % Chatterjee%null%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%3,                Didier%Zanini%NULL%1,                Vincent%Laforge%NULL%1,                Sylvie%Arlotto%NULL%1,                Stephanie%Gentile%NULL%1,                Helene%Mendizabal%NULL%1,                Michael%Finaud%NULL%1,                David%Morel%NULL%1,                Olivier%Quenette%NULL%1,                Priscilla%Malfuson-Clot-Faybesse%NULL%1,                Alain%Midejean%NULL%1,                Phuc%Le-Dinh%NULL%1,                Gérard%Daher%NULL%1,                Berengere%Labarriere%NULL%1,                Anne-Marie%Morel-Roux%NULL%1,                Alain%Coquet%NULL%1,                Patrick%Augier%NULL%1,                Philippe%Parola%NULL%2,                Eric%Chabriere%NULL%1,                Didier%Raoult%NULL%2,                Philippe%Gautret%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Mahévas%NULL%0,                Viet-Thi%Tran%NULL%0,                Viet-Thi%Tran%NULL%0,                Mathilde%Roumier%NULL%0,                Amélie%Chabrol%NULL%0,                Romain%Paule%NULL%0,                Constance%Guillaud%NULL%0,                Elena%Fois%NULL%0,                Raphael%Lepeule%NULL%0,                Tali-Anne%Szwebel%NULL%0,                François-Xavier%Lescure%NULL%0,                Frédéric%Schlemmer%NULL%0,                Marie%Matignon%NULL%0,                Mehdi%Khellaf%NULL%0,                Etienne%Crickx%NULL%0,                Benjamin%Terrier%NULL%0,                Caroline%Morbieu%NULL%0,                Paul%Legendre%NULL%0,                Julien%Dang%NULL%0,                Yoland%Schoindre%NULL%0,                Jean-Michel%Pawlotsky%NULL%0,                Marc%Michel%NULL%0,                Elodie%Perrodeau%NULL%0,                Nicolas%Carlier%NULL%0,                Nicolas%Roche%NULL%0,                Victoire%de Lastours%NULL%0,                Clément%Ourghanlian%NULL%0,                Solen%Kerneis%NULL%0,                Philippe%Ménager%NULL%0,                Luc%Mouthon%NULL%0,                Etienne%Audureau%NULL%0,                Philippe%Ravaud%NULL%0,                Bertrand%Godeau%NULL%0,                Sébastien%Gallien%NULL%0,                Nathalie%Costedoat-Chalumeau%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ahmed%Hasan%coreGivesNoEmail%1,               Amir%Lerman%coreGivesNoEmail%1,               Charanjit%Rihal%coreGivesNoEmail%1,               Charles%Cagin%coreGivesNoEmail%1,               Derek%So%coreGivesNoEmail%1,               Erin%Iturriaga%coreGivesNoEmail%1,               Ivan%Chavez%coreGivesNoEmail%1,               J.%Dawn Abbott%coreGivesNoEmail%1,               Jang-Ho%Bae%coreGivesNoEmail%1,               Jean-Francois%Tanguay%coreGivesNoEmail%1,               Kent%Bailey%coreGivesNoEmail%1,               Liewei%Wang%coreGivesNoEmail%1,               Linnea%Baudhuin%coreGivesNoEmail%1,               Malcolm%Bell%coreGivesNoEmail%1,               Mandeep%Sidhu%coreGivesNoEmail%1,               Michael%E. Farkouh%coreGivesNoEmail%1,               Myung%Ho Jeong%coreGivesNoEmail%1,               Nancy%Geller%coreGivesNoEmail%1,               Naveen%L. Pereira%coreGivesNoEmail%1,               Paul%Gordon%coreGivesNoEmail%1,               Richard%Weinshilboum%coreGivesNoEmail%1,               Robert%Welsh%coreGivesNoEmail%1,               Ryan%Lennon%coreGivesNoEmail%1,               Shaun%G. Goodman%coreGivesNoEmail%1,               Verghese%Mathew%coreGivesNoEmail%1,               Yi-Ping%Fu%coreGivesNoEmail%1,               Yves%Rosenberg%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Francisco Javier%Membrillo de Novales%xref no email%1,         Germ\u00e1n%Ram\u00edrez-Olivencia%xref no email%1,         Miriam%Est\u00e9banez%xref no email%1,         Bego\u00f1a%de Dios%xref no email%1,         Mar\u00eda Dolores%Herrero%xref no email%1,         Tatiana%Mata%xref no email%1,         Alberto M.%Borobia%xref no email%1,         Carlos%Guti\u00e9rrez%xref no email%1,         Mar\u00eda%Sim\u00f3n%xref no email%1,         Ana%Ochoa%xref no email%1,         Yolanda%Mart\u00ednez%xref no email%1,         Alejandro%Aguirre%xref no email%1,         Francisco de As\u00eds%Alc\u00e1ntara%xref no email%1,         Pablo%Fern\u00e1ndez-Gonz\u00e1lez%xref no email%1,         Elena%L\u00f3pez%xref no email%1,         Sergio%Campos%xref no email%1,         Mar\u00eda%Navarro%xref no email%1,         Luc\u00eda Elena%Ballester%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Joseph%Magagnoli%NULL%1,                Siddharth%Narendran%NULL%1,                Felipe%Pereira%NULL%1,                Tammy H.%Cummings%NULL%1,                James W.%Hardin%NULL%1,                S. Scott%Sutton%NULL%1,                Jayakrishna%Ambati%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ S.%Singh%null%1,                 A.% Khan%null%1,                 M.% Chowdhry%null%1,                 A. % Chatterjee%null%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%3,                 Didier%Zanini%NULL%1,                 Vincent%Laforge%NULL%1,                 Sylvie%Arlotto%NULL%1,                 Stephanie%Gentile%NULL%1,                 Helene%Mendizabal%NULL%1,                 Michael%Finaud%NULL%1,                 David%Morel%NULL%1,                 Olivier%Quenette%NULL%1,                 Priscilla%Malfuson-Clot-Faybesse%NULL%1,                 Alain%Midejean%NULL%1,                 Phuc%Le-Dinh%NULL%1,                 Gérard%Daher%NULL%1,                 Berengere%Labarriere%NULL%1,                 Anne-Marie%Morel-Roux%NULL%1,                 Alain%Coquet%NULL%1,                 Patrick%Augier%NULL%1,                 Philippe%Parola%NULL%2,                 Eric%Chabriere%NULL%1,                 Didier%Raoult%NULL%2,                 Philippe%Gautret%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Mahévas%NULL%0,                 Viet-Thi%Tran%NULL%0,                 Viet-Thi%Tran%NULL%0,                 Mathilde%Roumier%NULL%0,                 Amélie%Chabrol%NULL%0,                 Romain%Paule%NULL%0,                 Constance%Guillaud%NULL%0,                 Elena%Fois%NULL%0,                 Raphael%Lepeule%NULL%0,                 Tali-Anne%Szwebel%NULL%0,                 François-Xavier%Lescure%NULL%0,                 Frédéric%Schlemmer%NULL%0,                 Marie%Matignon%NULL%0,                 Mehdi%Khellaf%NULL%0,                 Etienne%Crickx%NULL%0,                 Benjamin%Terrier%NULL%0,                 Caroline%Morbieu%NULL%0,                 Paul%Legendre%NULL%0,                 Julien%Dang%NULL%0,                 Yoland%Schoindre%NULL%0,                 Jean-Michel%Pawlotsky%NULL%0,                 Marc%Michel%NULL%0,                 Elodie%Perrodeau%NULL%0,                 Nicolas%Carlier%NULL%0,                 Nicolas%Roche%NULL%0,                 Victoire%de Lastours%NULL%0,                 Clément%Ourghanlian%NULL%0,                 Solen%Kerneis%NULL%0,                 Philippe%Ménager%NULL%0,                 Luc%Mouthon%NULL%0,                 Etienne%Audureau%NULL%0,                 Philippe%Ravaud%NULL%0,                 Bertrand%Godeau%NULL%0,                 Sébastien%Gallien%NULL%0,                 Nathalie%Costedoat-Chalumeau%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ahmed%Hasan%coreGivesNoEmail%1,                Amir%Lerman%coreGivesNoEmail%1,                Charanjit%Rihal%coreGivesNoEmail%1,                Charles%Cagin%coreGivesNoEmail%1,                Derek%So%coreGivesNoEmail%1,                Erin%Iturriaga%coreGivesNoEmail%1,                Ivan%Chavez%coreGivesNoEmail%1,                J.%Dawn Abbott%coreGivesNoEmail%1,                Jang-Ho%Bae%coreGivesNoEmail%1,                Jean-Francois%Tanguay%coreGivesNoEmail%1,                Kent%Bailey%coreGivesNoEmail%1,                Liewei%Wang%coreGivesNoEmail%1,                Linnea%Baudhuin%coreGivesNoEmail%1,                Malcolm%Bell%coreGivesNoEmail%1,                Mandeep%Sidhu%coreGivesNoEmail%1,                Michael%E. Farkouh%coreGivesNoEmail%1,                Myung%Ho Jeong%coreGivesNoEmail%1,                Nancy%Geller%coreGivesNoEmail%1,                Naveen%L. Pereira%coreGivesNoEmail%1,                Paul%Gordon%coreGivesNoEmail%1,                Richard%Weinshilboum%coreGivesNoEmail%1,                Robert%Welsh%coreGivesNoEmail%1,                Ryan%Lennon%coreGivesNoEmail%1,                Shaun%G. Goodman%coreGivesNoEmail%1,                Verghese%Mathew%coreGivesNoEmail%1,                Yi-Ping%Fu%coreGivesNoEmail%1,                Yves%Rosenberg%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Francisco Javier%Membrillo de Novales%xref no email%1,          Germ\u00e1n%Ram\u00edrez-Olivencia%xref no email%1,          Miriam%Est\u00e9banez%xref no email%1,          Bego\u00f1a%de Dios%xref no email%1,          Mar\u00eda Dolores%Herrero%xref no email%1,          Tatiana%Mata%xref no email%1,          Alberto M.%Borobia%xref no email%1,          Carlos%Guti\u00e9rrez%xref no email%1,          Mar\u00eda%Sim\u00f3n%xref no email%1,          Ana%Ochoa%xref no email%1,          Yolanda%Mart\u00ednez%xref no email%1,          Alejandro%Aguirre%xref no email%1,          Francisco de As\u00eds%Alc\u00e1ntara%xref no email%1,          Pablo%Fern\u00e1ndez-Gonz\u00e1lez%xref no email%1,          Elena%L\u00f3pez%xref no email%1,          Sergio%Campos%xref no email%1,          Mar\u00eda%Navarro%xref no email%1,          Luc\u00eda Elena%Ballester%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Joseph%Magagnoli%NULL%1,                 Siddharth%Narendran%NULL%1,                 Felipe%Pereira%NULL%1,                 Tammy H.%Cummings%NULL%1,                 James W.%Hardin%NULL%1,                 S. Scott%Sutton%NULL%1,                 Jayakrishna%Ambati%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ S.%Singh%null%1,                  A.% Khan%null%1,                  M.% Chowdhry%null%1,                  A. % Chatterjee%null%1]</t>
   </si>
 </sst>
 </file>
@@ -825,7 +861,7 @@
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -854,7 +890,7 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
@@ -883,7 +919,7 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -941,7 +977,7 @@
         <v>93</v>
       </c>
       <c r="E6" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -970,7 +1006,7 @@
         <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="F7" t="s">
         <v>39</v>
@@ -999,7 +1035,7 @@
         <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>

--- a/Covid_19_Dataset_and_References/References/54.xlsx
+++ b/Covid_19_Dataset_and_References/References/54.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="163">
   <si>
     <t>Doi</t>
   </si>
@@ -533,6 +533,24 @@
   </si>
   <si>
     <t>[ S.%Singh%null%1,                  A.% Khan%null%1,                  M.% Chowdhry%null%1,                  A. % Chatterjee%null%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%3,                  Didier%Zanini%NULL%1,                  Vincent%Laforge%NULL%1,                  Sylvie%Arlotto%NULL%1,                  Stephanie%Gentile%NULL%1,                  Helene%Mendizabal%NULL%1,                  Michael%Finaud%NULL%1,                  David%Morel%NULL%1,                  Olivier%Quenette%NULL%1,                  Priscilla%Malfuson-Clot-Faybesse%NULL%1,                  Alain%Midejean%NULL%1,                  Phuc%Le-Dinh%NULL%1,                  Gérard%Daher%NULL%1,                  Berengere%Labarriere%NULL%1,                  Anne-Marie%Morel-Roux%NULL%1,                  Alain%Coquet%NULL%1,                  Patrick%Augier%NULL%1,                  Philippe%Parola%NULL%2,                  Eric%Chabriere%NULL%1,                  Didier%Raoult%NULL%2,                  Philippe%Gautret%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Mahévas%NULL%0,                  Viet-Thi%Tran%NULL%0,                  Viet-Thi%Tran%NULL%0,                  Mathilde%Roumier%NULL%0,                  Amélie%Chabrol%NULL%0,                  Romain%Paule%NULL%0,                  Constance%Guillaud%NULL%0,                  Elena%Fois%NULL%0,                  Raphael%Lepeule%NULL%0,                  Tali-Anne%Szwebel%NULL%0,                  François-Xavier%Lescure%NULL%0,                  Frédéric%Schlemmer%NULL%0,                  Marie%Matignon%NULL%0,                  Mehdi%Khellaf%NULL%0,                  Etienne%Crickx%NULL%0,                  Benjamin%Terrier%NULL%0,                  Caroline%Morbieu%NULL%0,                  Paul%Legendre%NULL%0,                  Julien%Dang%NULL%0,                  Yoland%Schoindre%NULL%0,                  Jean-Michel%Pawlotsky%NULL%0,                  Marc%Michel%NULL%0,                  Elodie%Perrodeau%NULL%0,                  Nicolas%Carlier%NULL%0,                  Nicolas%Roche%NULL%0,                  Victoire%de Lastours%NULL%0,                  Clément%Ourghanlian%NULL%0,                  Solen%Kerneis%NULL%0,                  Philippe%Ménager%NULL%0,                  Luc%Mouthon%NULL%0,                  Etienne%Audureau%NULL%0,                  Philippe%Ravaud%NULL%0,                  Bertrand%Godeau%NULL%0,                  Sébastien%Gallien%NULL%0,                  Nathalie%Costedoat-Chalumeau%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ahmed%Hasan%coreGivesNoEmail%1,                 Amir%Lerman%coreGivesNoEmail%1,                 Charanjit%Rihal%coreGivesNoEmail%1,                 Charles%Cagin%coreGivesNoEmail%1,                 Derek%So%coreGivesNoEmail%1,                 Erin%Iturriaga%coreGivesNoEmail%1,                 Ivan%Chavez%coreGivesNoEmail%1,                 J.%Dawn Abbott%coreGivesNoEmail%1,                 Jang-Ho%Bae%coreGivesNoEmail%1,                 Jean-Francois%Tanguay%coreGivesNoEmail%1,                 Kent%Bailey%coreGivesNoEmail%1,                 Liewei%Wang%coreGivesNoEmail%1,                 Linnea%Baudhuin%coreGivesNoEmail%1,                 Malcolm%Bell%coreGivesNoEmail%1,                 Mandeep%Sidhu%coreGivesNoEmail%1,                 Michael%E. Farkouh%coreGivesNoEmail%1,                 Myung%Ho Jeong%coreGivesNoEmail%1,                 Nancy%Geller%coreGivesNoEmail%1,                 Naveen%L. Pereira%coreGivesNoEmail%1,                 Paul%Gordon%coreGivesNoEmail%1,                 Richard%Weinshilboum%coreGivesNoEmail%1,                 Robert%Welsh%coreGivesNoEmail%1,                 Ryan%Lennon%coreGivesNoEmail%1,                 Shaun%G. Goodman%coreGivesNoEmail%1,                 Verghese%Mathew%coreGivesNoEmail%1,                 Yi-Ping%Fu%coreGivesNoEmail%1,                 Yves%Rosenberg%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Francisco Javier%Membrillo de Novales%xref no email%1,           Germ\u00e1n%Ram\u00edrez-Olivencia%xref no email%1,           Miriam%Est\u00e9banez%xref no email%1,           Bego\u00f1a%de Dios%xref no email%1,           Mar\u00eda Dolores%Herrero%xref no email%1,           Tatiana%Mata%xref no email%1,           Alberto M.%Borobia%xref no email%1,           Carlos%Guti\u00e9rrez%xref no email%1,           Mar\u00eda%Sim\u00f3n%xref no email%1,           Ana%Ochoa%xref no email%1,           Yolanda%Mart\u00ednez%xref no email%1,           Alejandro%Aguirre%xref no email%1,           Francisco de As\u00eds%Alc\u00e1ntara%xref no email%1,           Pablo%Fern\u00e1ndez-Gonz\u00e1lez%xref no email%1,           Elena%L\u00f3pez%xref no email%1,           Sergio%Campos%xref no email%1,           Mar\u00eda%Navarro%xref no email%1,           Luc\u00eda Elena%Ballester%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Joseph%Magagnoli%NULL%1,                  Siddharth%Narendran%NULL%1,                  Felipe%Pereira%NULL%1,                  Tammy H.%Cummings%NULL%1,                  James W.%Hardin%NULL%1,                  S. Scott%Sutton%NULL%1,                  Jayakrishna%Ambati%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ S.%Singh%null%1,                   A.% Khan%null%1,                   M.% Chowdhry%null%1,                   A. % Chatterjee%null%1]</t>
   </si>
 </sst>
 </file>
@@ -861,7 +879,7 @@
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -890,7 +908,7 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
@@ -919,7 +937,7 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -977,7 +995,7 @@
         <v>93</v>
       </c>
       <c r="E6" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1006,7 +1024,7 @@
         <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="F7" t="s">
         <v>39</v>
@@ -1035,7 +1053,7 @@
         <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>

--- a/Covid_19_Dataset_and_References/References/54.xlsx
+++ b/Covid_19_Dataset_and_References/References/54.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="173">
   <si>
     <t>Doi</t>
   </si>
@@ -551,6 +551,36 @@
   </si>
   <si>
     <t>[ S.%Singh%null%1,                   A.% Khan%null%1,                   M.% Chowdhry%null%1,                   A. % Chatterjee%null%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%3,                   Didier%Zanini%NULL%1,                   Vincent%Laforge%NULL%1,                   Sylvie%Arlotto%NULL%1,                   Stephanie%Gentile%NULL%1,                   Helene%Mendizabal%NULL%1,                   Michael%Finaud%NULL%1,                   David%Morel%NULL%1,                   Olivier%Quenette%NULL%1,                   Priscilla%Malfuson-Clot-Faybesse%NULL%1,                   Alain%Midejean%NULL%1,                   Phuc%Le-Dinh%NULL%1,                   Gérard%Daher%NULL%1,                   Berengere%Labarriere%NULL%1,                   Anne-Marie%Morel-Roux%NULL%1,                   Alain%Coquet%NULL%1,                   Patrick%Augier%NULL%1,                   Philippe%Parola%NULL%2,                   Eric%Chabriere%NULL%1,                   Didier%Raoult%NULL%2,                   Philippe%Gautret%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Matthieu%Mahévas%NULL%0,                   Viet-Thi%Tran%NULL%0,                   Viet-Thi%Tran%NULL%0,                   Mathilde%Roumier%NULL%0,                   Amélie%Chabrol%NULL%0,                   Romain%Paule%NULL%0,                   Constance%Guillaud%NULL%0,                   Elena%Fois%NULL%0,                   Raphael%Lepeule%NULL%0,                   Tali-Anne%Szwebel%NULL%0,                   François-Xavier%Lescure%NULL%0,                   Frédéric%Schlemmer%NULL%0,                   Marie%Matignon%NULL%0,                   Mehdi%Khellaf%NULL%0,                   Etienne%Crickx%NULL%0,                   Benjamin%Terrier%NULL%0,                   Caroline%Morbieu%NULL%0,                   Paul%Legendre%NULL%0,                   Julien%Dang%NULL%0,                   Yoland%Schoindre%NULL%0,                   Jean-Michel%Pawlotsky%NULL%0,                   Marc%Michel%NULL%0,                   Elodie%Perrodeau%NULL%0,                   Nicolas%Carlier%NULL%0,                   Nicolas%Roche%NULL%0,                   Victoire%de Lastours%NULL%0,                   Clément%Ourghanlian%NULL%0,                   Solen%Kerneis%NULL%0,                   Philippe%Ménager%NULL%0,                   Luc%Mouthon%NULL%0,                   Etienne%Audureau%NULL%0,                   Philippe%Ravaud%NULL%0,                   Bertrand%Godeau%NULL%0,                   Sébastien%Gallien%NULL%0,                   Nathalie%Costedoat-Chalumeau%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Ahmed%Hasan%coreGivesNoEmail%1,                  Amir%Lerman%coreGivesNoEmail%1,                  Charanjit%Rihal%coreGivesNoEmail%1,                  Charles%Cagin%coreGivesNoEmail%1,                  Derek%So%coreGivesNoEmail%1,                  Erin%Iturriaga%coreGivesNoEmail%1,                  Ivan%Chavez%coreGivesNoEmail%1,                  J.%Dawn Abbott%coreGivesNoEmail%1,                  Jang-Ho%Bae%coreGivesNoEmail%1,                  Jean-Francois%Tanguay%coreGivesNoEmail%1,                  Kent%Bailey%coreGivesNoEmail%1,                  Liewei%Wang%coreGivesNoEmail%1,                  Linnea%Baudhuin%coreGivesNoEmail%1,                  Malcolm%Bell%coreGivesNoEmail%1,                  Mandeep%Sidhu%coreGivesNoEmail%1,                  Michael%E. Farkouh%coreGivesNoEmail%1,                  Myung%Ho Jeong%coreGivesNoEmail%1,                  Nancy%Geller%coreGivesNoEmail%1,                  Naveen%L. Pereira%coreGivesNoEmail%1,                  Paul%Gordon%coreGivesNoEmail%1,                  Richard%Weinshilboum%coreGivesNoEmail%1,                  Robert%Welsh%coreGivesNoEmail%1,                  Ryan%Lennon%coreGivesNoEmail%1,                  Shaun%G. Goodman%coreGivesNoEmail%1,                  Verghese%Mathew%coreGivesNoEmail%1,                  Yi-Ping%Fu%coreGivesNoEmail%1,                  Yves%Rosenberg%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Francisco Javier%Membrillo de Novales%xref no email%1,            Germ\u00e1n%Ram\u00edrez-Olivencia%xref no email%1,            Miriam%Est\u00e9banez%xref no email%1,            Bego\u00f1a%de Dios%xref no email%1,            Mar\u00eda Dolores%Herrero%xref no email%1,            Tatiana%Mata%xref no email%1,            Alberto M.%Borobia%xref no email%1,            Carlos%Guti\u00e9rrez%xref no email%1,            Mar\u00eda%Sim\u00f3n%xref no email%1,            Ana%Ochoa%xref no email%1,            Yolanda%Mart\u00ednez%xref no email%1,            Alejandro%Aguirre%xref no email%1,            Francisco de As\u00eds%Alc\u00e1ntara%xref no email%1,            Pablo%Fern\u00e1ndez-Gonz\u00e1lez%xref no email%1,            Elena%L\u00f3pez%xref no email%1,            Sergio%Campos%xref no email%1,            Mar\u00eda%Navarro%xref no email%1,            Luc\u00eda Elena%Ballester%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Joseph%Magagnoli%NULL%1,                   Siddharth%Narendran%NULL%1,                   Felipe%Pereira%NULL%1,                   Tammy H.%Cummings%NULL%1,                   James W.%Hardin%NULL%1,                   S. Scott%Sutton%NULL%1,                   Jayakrishna%Ambati%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ S.%Singh%null%1,                    A.% Khan%null%1,                    M.% Chowdhry%null%1,                    A. % Chatterjee%null%1]</t>
+  </si>
+  <si>
+    <t>_MedBiorxiv_CROSSREF</t>
   </si>
 </sst>
 </file>
@@ -879,7 +909,7 @@
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -891,7 +921,7 @@
         <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>55</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3">
@@ -908,7 +938,7 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
@@ -920,7 +950,7 @@
         <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4">
@@ -937,7 +967,7 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -949,7 +979,7 @@
         <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>59</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5">
@@ -978,7 +1008,7 @@
         <v>35</v>
       </c>
       <c r="I5" t="s">
-        <v>59</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +1025,7 @@
         <v>93</v>
       </c>
       <c r="E6" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1007,7 +1037,7 @@
         <v>96</v>
       </c>
       <c r="I6" t="s">
-        <v>59</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7">
@@ -1024,7 +1054,7 @@
         <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="F7" t="s">
         <v>39</v>
@@ -1036,7 +1066,7 @@
         <v>40</v>
       </c>
       <c r="I7" t="s">
-        <v>55</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8">
@@ -1053,7 +1083,7 @@
         <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1065,7 +1095,7 @@
         <v>45</v>
       </c>
       <c r="I8" t="s">
-        <v>63</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/54.xlsx
+++ b/Covid_19_Dataset_and_References/References/54.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="179">
   <si>
     <t>Doi</t>
   </si>
@@ -581,6 +581,24 @@
   </si>
   <si>
     <t>_MedBiorxiv_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%3,                    Didier%Zanini%NULL%1,                    Vincent%Laforge%NULL%1,                    Sylvie%Arlotto%NULL%1,                    Stephanie%Gentile%NULL%1,                    Helene%Mendizabal%NULL%1,                    Michael%Finaud%NULL%1,                    David%Morel%NULL%1,                    Olivier%Quenette%NULL%1,                    Priscilla%Malfuson-Clot-Faybesse%NULL%1,                    Alain%Midejean%NULL%1,                    Phuc%Le-Dinh%NULL%1,                    Gérard%Daher%NULL%1,                    Berengere%Labarriere%NULL%1,                    Anne-Marie%Morel-Roux%NULL%1,                    Alain%Coquet%NULL%1,                    Patrick%Augier%NULL%1,                    Philippe%Parola%NULL%2,                    Eric%Chabriere%NULL%1,                    Didier%Raoult%NULL%2,                    Philippe%Gautret%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Mahévas%NULL%0,                    Viet-Thi%Tran%NULL%0,                    Viet-Thi%Tran%NULL%0,                    Mathilde%Roumier%NULL%0,                    Amélie%Chabrol%NULL%0,                    Romain%Paule%NULL%0,                    Constance%Guillaud%NULL%0,                    Elena%Fois%NULL%0,                    Raphael%Lepeule%NULL%0,                    Tali-Anne%Szwebel%NULL%0,                    François-Xavier%Lescure%NULL%0,                    Frédéric%Schlemmer%NULL%0,                    Marie%Matignon%NULL%0,                    Mehdi%Khellaf%NULL%0,                    Etienne%Crickx%NULL%0,                    Benjamin%Terrier%NULL%0,                    Caroline%Morbieu%NULL%0,                    Paul%Legendre%NULL%0,                    Julien%Dang%NULL%0,                    Yoland%Schoindre%NULL%0,                    Jean-Michel%Pawlotsky%NULL%0,                    Marc%Michel%NULL%0,                    Elodie%Perrodeau%NULL%0,                    Nicolas%Carlier%NULL%0,                    Nicolas%Roche%NULL%0,                    Victoire%de Lastours%NULL%0,                    Clément%Ourghanlian%NULL%0,                    Solen%Kerneis%NULL%0,                    Philippe%Ménager%NULL%0,                    Luc%Mouthon%NULL%0,                    Etienne%Audureau%NULL%0,                    Philippe%Ravaud%NULL%0,                    Bertrand%Godeau%NULL%0,                    Sébastien%Gallien%NULL%0,                    Nathalie%Costedoat-Chalumeau%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ahmed%Hasan%coreGivesNoEmail%1,                   Amir%Lerman%coreGivesNoEmail%1,                   Charanjit%Rihal%coreGivesNoEmail%1,                   Charles%Cagin%coreGivesNoEmail%1,                   Derek%So%coreGivesNoEmail%1,                   Erin%Iturriaga%coreGivesNoEmail%1,                   Ivan%Chavez%coreGivesNoEmail%1,                   J.%Dawn Abbott%coreGivesNoEmail%1,                   Jang-Ho%Bae%coreGivesNoEmail%1,                   Jean-Francois%Tanguay%coreGivesNoEmail%1,                   Kent%Bailey%coreGivesNoEmail%1,                   Liewei%Wang%coreGivesNoEmail%1,                   Linnea%Baudhuin%coreGivesNoEmail%1,                   Malcolm%Bell%coreGivesNoEmail%1,                   Mandeep%Sidhu%coreGivesNoEmail%1,                   Michael%E. Farkouh%coreGivesNoEmail%1,                   Myung%Ho Jeong%coreGivesNoEmail%1,                   Nancy%Geller%coreGivesNoEmail%1,                   Naveen%L. Pereira%coreGivesNoEmail%1,                   Paul%Gordon%coreGivesNoEmail%1,                   Richard%Weinshilboum%coreGivesNoEmail%1,                   Robert%Welsh%coreGivesNoEmail%1,                   Ryan%Lennon%coreGivesNoEmail%1,                   Shaun%G. Goodman%coreGivesNoEmail%1,                   Verghese%Mathew%coreGivesNoEmail%1,                   Yi-Ping%Fu%coreGivesNoEmail%1,                   Yves%Rosenberg%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Francisco Javier%Membrillo de Novales%xref no email%1,             Germ\u00e1n%Ram\u00edrez-Olivencia%xref no email%1,             Miriam%Est\u00e9banez%xref no email%1,             Bego\u00f1a%de Dios%xref no email%1,             Mar\u00eda Dolores%Herrero%xref no email%1,             Tatiana%Mata%xref no email%1,             Alberto M.%Borobia%xref no email%1,             Carlos%Guti\u00e9rrez%xref no email%1,             Mar\u00eda%Sim\u00f3n%xref no email%1,             Ana%Ochoa%xref no email%1,             Yolanda%Mart\u00ednez%xref no email%1,             Alejandro%Aguirre%xref no email%1,             Francisco de As\u00eds%Alc\u00e1ntara%xref no email%1,             Pablo%Fern\u00e1ndez-Gonz\u00e1lez%xref no email%1,             Elena%L\u00f3pez%xref no email%1,             Sergio%Campos%xref no email%1,             Mar\u00eda%Navarro%xref no email%1,             Luc\u00eda Elena%Ballester%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Joseph%Magagnoli%NULL%1,                    Siddharth%Narendran%NULL%1,                    Felipe%Pereira%NULL%1,                    Tammy H.%Cummings%NULL%1,                    James W.%Hardin%NULL%1,                    S. Scott%Sutton%NULL%1,                    Jayakrishna%Ambati%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ S.%Singh%null%2,                     A.% Khan%null%1,                     M.% Chowdhry%null%1,                     A. % Chatterjee%null%1,  S.%Singh%null%0,  A.% Khan%null%1,  M.% Chowdhry%null%1,  A. % Chatterjee%null%1]</t>
   </si>
 </sst>
 </file>
@@ -909,7 +927,7 @@
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -938,7 +956,7 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
@@ -967,7 +985,7 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1025,7 +1043,7 @@
         <v>93</v>
       </c>
       <c r="E6" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1054,7 +1072,7 @@
         <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="F7" t="s">
         <v>39</v>
@@ -1083,7 +1101,7 @@
         <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>

--- a/Covid_19_Dataset_and_References/References/54.xlsx
+++ b/Covid_19_Dataset_and_References/References/54.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="207">
   <si>
     <t>Doi</t>
   </si>
@@ -599,6 +599,90 @@
   </si>
   <si>
     <t>[ S.%Singh%null%2,                     A.% Khan%null%1,                     M.% Chowdhry%null%1,                     A. % Chatterjee%null%1,  S.%Singh%null%0,  A.% Khan%null%1,  M.% Chowdhry%null%1,  A. % Chatterjee%null%1]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%3,                     Didier%Zanini%NULL%1,                     Vincent%Laforge%NULL%1,                     Sylvie%Arlotto%NULL%1,                     Stephanie%Gentile%NULL%1,                     Helene%Mendizabal%NULL%1,                     Michael%Finaud%NULL%1,                     David%Morel%NULL%1,                     Olivier%Quenette%NULL%1,                     Priscilla%Malfuson-Clot-Faybesse%NULL%1,                     Alain%Midejean%NULL%1,                     Phuc%Le-Dinh%NULL%1,                     Gérard%Daher%NULL%1,                     Berengere%Labarriere%NULL%1,                     Anne-Marie%Morel-Roux%NULL%1,                     Alain%Coquet%NULL%1,                     Patrick%Augier%NULL%1,                     Philippe%Parola%NULL%2,                     Eric%Chabriere%NULL%1,                     Didier%Raoult%NULL%2,                     Philippe%Gautret%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Mahévas%NULL%0,                     Viet-Thi%Tran%NULL%0,                     Viet-Thi%Tran%NULL%0,                     Mathilde%Roumier%NULL%0,                     Amélie%Chabrol%NULL%0,                     Romain%Paule%NULL%0,                     Constance%Guillaud%NULL%0,                     Elena%Fois%NULL%0,                     Raphael%Lepeule%NULL%0,                     Tali-Anne%Szwebel%NULL%0,                     François-Xavier%Lescure%NULL%0,                     Frédéric%Schlemmer%NULL%0,                     Marie%Matignon%NULL%0,                     Mehdi%Khellaf%NULL%0,                     Etienne%Crickx%NULL%0,                     Benjamin%Terrier%NULL%0,                     Caroline%Morbieu%NULL%0,                     Paul%Legendre%NULL%0,                     Julien%Dang%NULL%0,                     Yoland%Schoindre%NULL%0,                     Jean-Michel%Pawlotsky%NULL%0,                     Marc%Michel%NULL%0,                     Elodie%Perrodeau%NULL%0,                     Nicolas%Carlier%NULL%0,                     Nicolas%Roche%NULL%0,                     Victoire%de Lastours%NULL%0,                     Clément%Ourghanlian%NULL%0,                     Solen%Kerneis%NULL%0,                     Philippe%Ménager%NULL%0,                     Luc%Mouthon%NULL%0,                     Etienne%Audureau%NULL%0,                     Philippe%Ravaud%NULL%0,                     Bertrand%Godeau%NULL%0,                     Sébastien%Gallien%NULL%0,                     Nathalie%Costedoat-Chalumeau%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ahmed%Hasan%coreGivesNoEmail%1,                    Amir%Lerman%coreGivesNoEmail%1,                    Charanjit%Rihal%coreGivesNoEmail%1,                    Charles%Cagin%coreGivesNoEmail%1,                    Derek%So%coreGivesNoEmail%1,                    Erin%Iturriaga%coreGivesNoEmail%1,                    Ivan%Chavez%coreGivesNoEmail%1,                    J.%Dawn Abbott%coreGivesNoEmail%1,                    Jang-Ho%Bae%coreGivesNoEmail%1,                    Jean-Francois%Tanguay%coreGivesNoEmail%1,                    Kent%Bailey%coreGivesNoEmail%1,                    Liewei%Wang%coreGivesNoEmail%1,                    Linnea%Baudhuin%coreGivesNoEmail%1,                    Malcolm%Bell%coreGivesNoEmail%1,                    Mandeep%Sidhu%coreGivesNoEmail%1,                    Michael%E. Farkouh%coreGivesNoEmail%1,                    Myung%Ho Jeong%coreGivesNoEmail%1,                    Nancy%Geller%coreGivesNoEmail%1,                    Naveen%L. Pereira%coreGivesNoEmail%1,                    Paul%Gordon%coreGivesNoEmail%1,                    Richard%Weinshilboum%coreGivesNoEmail%1,                    Robert%Welsh%coreGivesNoEmail%1,                    Ryan%Lennon%coreGivesNoEmail%1,                    Shaun%G. Goodman%coreGivesNoEmail%1,                    Verghese%Mathew%coreGivesNoEmail%1,                    Yi-Ping%Fu%coreGivesNoEmail%1,                    Yves%Rosenberg%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Francisco Javier%Membrillo de Novales%xref no email%0, Germ\u00e1n%Ram\u00edrez-Olivencia%xref no email%1, Miriam%Est\u00e9banez%xref no email%1, Bego\u00f1a%de Dios%xref no email%1, Mar\u00eda Dolores%Herrero%xref no email%1, Tatiana%Mata%xref no email%1, Alberto M.%Borobia%xref no email%0, Carlos%Guti\u00e9rrez%xref no email%1, Mar\u00eda%Sim\u00f3n%xref no email%1, Ana%Ochoa%xref no email%1, Yolanda%Mart\u00ednez%xref no email%1, Alejandro%Aguirre%xref no email%1, Francisco de As\u00eds%Alc\u00e1ntara%xref no email%1, Pablo%Fern\u00e1ndez-Gonz\u00e1lez%xref no email%1, Elena%L\u00f3pez%xref no email%1, Sergio%Campos%xref no email%1, Mar\u00eda%Navarro%xref no email%1, Luc\u00eda Elena%Ballester%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: MDPI AG</t>
+  </si>
+  <si>
+    <t>[Joseph%Magagnoli%NULL%1,                     Siddharth%Narendran%NULL%1,                     Felipe%Pereira%NULL%1,                     Tammy H.%Cummings%NULL%1,                     James W.%Hardin%NULL%1,                     S. Scott%Sutton%NULL%1,                     Jayakrishna%Ambati%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ S.%Singh%null%1,                      A.% Khan%null%1,                      M.% Chowdhry%null%1,                      A. % Chatterjee%null%1,   S.%Singh%null%1,   A.% Khan%null%1,   M.% Chowdhry%null%1,   A. % Chatterjee%null%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%3,                      Didier%Zanini%NULL%1,                      Vincent%Laforge%NULL%1,                      Sylvie%Arlotto%NULL%1,                      Stephanie%Gentile%NULL%1,                      Helene%Mendizabal%NULL%1,                      Michael%Finaud%NULL%1,                      David%Morel%NULL%1,                      Olivier%Quenette%NULL%1,                      Priscilla%Malfuson-Clot-Faybesse%NULL%1,                      Alain%Midejean%NULL%1,                      Phuc%Le-Dinh%NULL%1,                      Gérard%Daher%NULL%1,                      Berengere%Labarriere%NULL%1,                      Anne-Marie%Morel-Roux%NULL%1,                      Alain%Coquet%NULL%1,                      Patrick%Augier%NULL%1,                      Philippe%Parola%NULL%2,                      Eric%Chabriere%NULL%1,                      Didier%Raoult%NULL%2,                      Philippe%Gautret%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Mahévas%NULL%0,                      Viet-Thi%Tran%NULL%0,                      Viet-Thi%Tran%NULL%0,                      Mathilde%Roumier%NULL%0,                      Amélie%Chabrol%NULL%0,                      Romain%Paule%NULL%0,                      Constance%Guillaud%NULL%0,                      Elena%Fois%NULL%0,                      Raphael%Lepeule%NULL%0,                      Tali-Anne%Szwebel%NULL%0,                      François-Xavier%Lescure%NULL%0,                      Frédéric%Schlemmer%NULL%0,                      Marie%Matignon%NULL%0,                      Mehdi%Khellaf%NULL%0,                      Etienne%Crickx%NULL%0,                      Benjamin%Terrier%NULL%0,                      Caroline%Morbieu%NULL%0,                      Paul%Legendre%NULL%0,                      Julien%Dang%NULL%0,                      Yoland%Schoindre%NULL%0,                      Jean-Michel%Pawlotsky%NULL%0,                      Marc%Michel%NULL%0,                      Elodie%Perrodeau%NULL%0,                      Nicolas%Carlier%NULL%0,                      Nicolas%Roche%NULL%0,                      Victoire%de Lastours%NULL%0,                      Clément%Ourghanlian%NULL%0,                      Solen%Kerneis%NULL%0,                      Philippe%Ménager%NULL%0,                      Luc%Mouthon%NULL%0,                      Etienne%Audureau%NULL%0,                      Philippe%Ravaud%NULL%0,                      Bertrand%Godeau%NULL%0,                      Sébastien%Gallien%NULL%0,                      Nathalie%Costedoat-Chalumeau%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ahmed%Hasan%coreGivesNoEmail%1,                     Amir%Lerman%coreGivesNoEmail%1,                     Charanjit%Rihal%coreGivesNoEmail%1,                     Charles%Cagin%coreGivesNoEmail%1,                     Derek%So%coreGivesNoEmail%1,                     Erin%Iturriaga%coreGivesNoEmail%1,                     Ivan%Chavez%coreGivesNoEmail%1,                     J.%Dawn Abbott%coreGivesNoEmail%1,                     Jang-Ho%Bae%coreGivesNoEmail%1,                     Jean-Francois%Tanguay%coreGivesNoEmail%1,                     Kent%Bailey%coreGivesNoEmail%1,                     Liewei%Wang%coreGivesNoEmail%1,                     Linnea%Baudhuin%coreGivesNoEmail%1,                     Malcolm%Bell%coreGivesNoEmail%1,                     Mandeep%Sidhu%coreGivesNoEmail%1,                     Michael%E. Farkouh%coreGivesNoEmail%1,                     Myung%Ho Jeong%coreGivesNoEmail%1,                     Nancy%Geller%coreGivesNoEmail%1,                     Naveen%L. Pereira%coreGivesNoEmail%1,                     Paul%Gordon%coreGivesNoEmail%1,                     Richard%Weinshilboum%coreGivesNoEmail%1,                     Robert%Welsh%coreGivesNoEmail%1,                     Ryan%Lennon%coreGivesNoEmail%1,                     Shaun%G. Goodman%coreGivesNoEmail%1,                     Verghese%Mathew%coreGivesNoEmail%1,                     Yi-Ping%Fu%coreGivesNoEmail%1,                     Yves%Rosenberg%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Joseph%Magagnoli%NULL%1,                      Siddharth%Narendran%NULL%1,                      Felipe%Pereira%NULL%1,                      Tammy H.%Cummings%NULL%1,                      James W.%Hardin%NULL%1,                      S. Scott%Sutton%NULL%1,                      Jayakrishna%Ambati%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ S.%Singh%null%1,                       A.% Khan%null%1,                       M.% Chowdhry%null%1,                       A. % Chatterjee%null%1,    S.%Singh%null%1,    A.% Khan%null%1,    M.% Chowdhry%null%1,    A. % Chatterjee%null%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%3,                       Didier%Zanini%NULL%1,                       Vincent%Laforge%NULL%1,                       Sylvie%Arlotto%NULL%1,                       Stephanie%Gentile%NULL%1,                       Helene%Mendizabal%NULL%1,                       Michael%Finaud%NULL%1,                       David%Morel%NULL%1,                       Olivier%Quenette%NULL%1,                       Priscilla%Malfuson-Clot-Faybesse%NULL%1,                       Alain%Midejean%NULL%1,                       Phuc%Le-Dinh%NULL%1,                       Gérard%Daher%NULL%1,                       Berengere%Labarriere%NULL%1,                       Anne-Marie%Morel-Roux%NULL%1,                       Alain%Coquet%NULL%1,                       Patrick%Augier%NULL%1,                       Philippe%Parola%NULL%2,                       Eric%Chabriere%NULL%1,                       Didier%Raoult%NULL%2,                       Philippe%Gautret%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Mahévas%NULL%0,                       Viet-Thi%Tran%NULL%0,                       Viet-Thi%Tran%NULL%0,                       Mathilde%Roumier%NULL%0,                       Amélie%Chabrol%NULL%0,                       Romain%Paule%NULL%0,                       Constance%Guillaud%NULL%0,                       Elena%Fois%NULL%0,                       Raphael%Lepeule%NULL%0,                       Tali-Anne%Szwebel%NULL%0,                       François-Xavier%Lescure%NULL%0,                       Frédéric%Schlemmer%NULL%0,                       Marie%Matignon%NULL%0,                       Mehdi%Khellaf%NULL%0,                       Etienne%Crickx%NULL%0,                       Benjamin%Terrier%NULL%0,                       Caroline%Morbieu%NULL%0,                       Paul%Legendre%NULL%0,                       Julien%Dang%NULL%0,                       Yoland%Schoindre%NULL%0,                       Jean-Michel%Pawlotsky%NULL%0,                       Marc%Michel%NULL%0,                       Elodie%Perrodeau%NULL%0,                       Nicolas%Carlier%NULL%0,                       Nicolas%Roche%NULL%0,                       Victoire%de Lastours%NULL%0,                       Clément%Ourghanlian%NULL%0,                       Solen%Kerneis%NULL%0,                       Philippe%Ménager%NULL%0,                       Luc%Mouthon%NULL%0,                       Etienne%Audureau%NULL%0,                       Philippe%Ravaud%NULL%0,                       Bertrand%Godeau%NULL%0,                       Sébastien%Gallien%NULL%0,                       Nathalie%Costedoat-Chalumeau%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ahmed%Hasan%coreGivesNoEmail%1,                      Amir%Lerman%coreGivesNoEmail%1,                      Charanjit%Rihal%coreGivesNoEmail%1,                      Charles%Cagin%coreGivesNoEmail%1,                      Derek%So%coreGivesNoEmail%1,                      Erin%Iturriaga%coreGivesNoEmail%1,                      Ivan%Chavez%coreGivesNoEmail%1,                      J.%Dawn Abbott%coreGivesNoEmail%1,                      Jang-Ho%Bae%coreGivesNoEmail%1,                      Jean-Francois%Tanguay%coreGivesNoEmail%1,                      Kent%Bailey%coreGivesNoEmail%1,                      Liewei%Wang%coreGivesNoEmail%1,                      Linnea%Baudhuin%coreGivesNoEmail%1,                      Malcolm%Bell%coreGivesNoEmail%1,                      Mandeep%Sidhu%coreGivesNoEmail%1,                      Michael%E. Farkouh%coreGivesNoEmail%1,                      Myung%Ho Jeong%coreGivesNoEmail%1,                      Nancy%Geller%coreGivesNoEmail%1,                      Naveen%L. Pereira%coreGivesNoEmail%1,                      Paul%Gordon%coreGivesNoEmail%1,                      Richard%Weinshilboum%coreGivesNoEmail%1,                      Robert%Welsh%coreGivesNoEmail%1,                      Ryan%Lennon%coreGivesNoEmail%1,                      Shaun%G. Goodman%coreGivesNoEmail%1,                      Verghese%Mathew%coreGivesNoEmail%1,                      Yi-Ping%Fu%coreGivesNoEmail%1,                      Yves%Rosenberg%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Joseph%Magagnoli%NULL%1,                       Siddharth%Narendran%NULL%1,                       Felipe%Pereira%NULL%1,                       Tammy H.%Cummings%NULL%1,                       James W.%Hardin%NULL%1,                       S. Scott%Sutton%NULL%1,                       Jayakrishna%Ambati%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ S.%Singh%null%1,                        A.% Khan%null%1,                        M.% Chowdhry%null%1,                        A. % Chatterjee%null%1,     S.%Singh%null%1,     A.% Khan%null%1,     M.% Chowdhry%null%1,     A. % Chatterjee%null%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%3,                        Didier%Zanini%NULL%1,                        Vincent%Laforge%NULL%1,                        Sylvie%Arlotto%NULL%1,                        Stephanie%Gentile%NULL%1,                        Helene%Mendizabal%NULL%1,                        Michael%Finaud%NULL%1,                        David%Morel%NULL%1,                        Olivier%Quenette%NULL%1,                        Priscilla%Malfuson-Clot-Faybesse%NULL%1,                        Alain%Midejean%NULL%1,                        Phuc%Le-Dinh%NULL%1,                        Gérard%Daher%NULL%1,                        Berengere%Labarriere%NULL%1,                        Anne-Marie%Morel-Roux%NULL%1,                        Alain%Coquet%NULL%1,                        Patrick%Augier%NULL%1,                        Philippe%Parola%NULL%2,                        Eric%Chabriere%NULL%1,                        Didier%Raoult%NULL%2,                        Philippe%Gautret%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Mahévas%NULL%0,                        Viet-Thi%Tran%NULL%0,                        Viet-Thi%Tran%NULL%0,                        Mathilde%Roumier%NULL%0,                        Amélie%Chabrol%NULL%0,                        Romain%Paule%NULL%0,                        Constance%Guillaud%NULL%0,                        Elena%Fois%NULL%0,                        Raphael%Lepeule%NULL%0,                        Tali-Anne%Szwebel%NULL%0,                        François-Xavier%Lescure%NULL%0,                        Frédéric%Schlemmer%NULL%0,                        Marie%Matignon%NULL%0,                        Mehdi%Khellaf%NULL%0,                        Etienne%Crickx%NULL%0,                        Benjamin%Terrier%NULL%0,                        Caroline%Morbieu%NULL%0,                        Paul%Legendre%NULL%0,                        Julien%Dang%NULL%0,                        Yoland%Schoindre%NULL%0,                        Jean-Michel%Pawlotsky%NULL%0,                        Marc%Michel%NULL%0,                        Elodie%Perrodeau%NULL%0,                        Nicolas%Carlier%NULL%0,                        Nicolas%Roche%NULL%0,                        Victoire%de Lastours%NULL%0,                        Clément%Ourghanlian%NULL%0,                        Solen%Kerneis%NULL%0,                        Philippe%Ménager%NULL%0,                        Luc%Mouthon%NULL%0,                        Etienne%Audureau%NULL%0,                        Philippe%Ravaud%NULL%0,                        Bertrand%Godeau%NULL%0,                        Sébastien%Gallien%NULL%0,                        Nathalie%Costedoat-Chalumeau%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ahmed%Hasan%coreGivesNoEmail%1,                       Amir%Lerman%coreGivesNoEmail%1,                       Charanjit%Rihal%coreGivesNoEmail%1,                       Charles%Cagin%coreGivesNoEmail%1,                       Derek%So%coreGivesNoEmail%1,                       Erin%Iturriaga%coreGivesNoEmail%1,                       Ivan%Chavez%coreGivesNoEmail%1,                       J.%Dawn Abbott%coreGivesNoEmail%1,                       Jang-Ho%Bae%coreGivesNoEmail%1,                       Jean-Francois%Tanguay%coreGivesNoEmail%1,                       Kent%Bailey%coreGivesNoEmail%1,                       Liewei%Wang%coreGivesNoEmail%1,                       Linnea%Baudhuin%coreGivesNoEmail%1,                       Malcolm%Bell%coreGivesNoEmail%1,                       Mandeep%Sidhu%coreGivesNoEmail%1,                       Michael%E. Farkouh%coreGivesNoEmail%1,                       Myung%Ho Jeong%coreGivesNoEmail%1,                       Nancy%Geller%coreGivesNoEmail%1,                       Naveen%L. Pereira%coreGivesNoEmail%1,                       Paul%Gordon%coreGivesNoEmail%1,                       Richard%Weinshilboum%coreGivesNoEmail%1,                       Robert%Welsh%coreGivesNoEmail%1,                       Ryan%Lennon%coreGivesNoEmail%1,                       Shaun%G. Goodman%coreGivesNoEmail%1,                       Verghese%Mathew%coreGivesNoEmail%1,                       Yi-Ping%Fu%coreGivesNoEmail%1,                       Yves%Rosenberg%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Joseph%Magagnoli%NULL%1,                        Siddharth%Narendran%NULL%1,                        Felipe%Pereira%NULL%1,                        Tammy H.%Cummings%NULL%1,                        James W.%Hardin%NULL%1,                        S. Scott%Sutton%NULL%1,                        Jayakrishna%Ambati%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ S.%Singh%null%1,                         A.% Khan%null%1,                         M.% Chowdhry%null%1,                         A. % Chatterjee%null%1,      S.%Singh%null%1,      A.% Khan%null%1,      M.% Chowdhry%null%1,      A. % Chatterjee%null%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%3,                         Didier%Zanini%NULL%1,                         Vincent%Laforge%NULL%1,                         Sylvie%Arlotto%NULL%1,                         Stephanie%Gentile%NULL%1,                         Helene%Mendizabal%NULL%1,                         Michael%Finaud%NULL%1,                         David%Morel%NULL%1,                         Olivier%Quenette%NULL%1,                         Priscilla%Malfuson-Clot-Faybesse%NULL%1,                         Alain%Midejean%NULL%1,                         Phuc%Le-Dinh%NULL%1,                         Gérard%Daher%NULL%1,                         Berengere%Labarriere%NULL%1,                         Anne-Marie%Morel-Roux%NULL%1,                         Alain%Coquet%NULL%1,                         Patrick%Augier%NULL%1,                         Philippe%Parola%NULL%2,                         Eric%Chabriere%NULL%1,                         Didier%Raoult%NULL%2,                         Philippe%Gautret%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Mahévas%NULL%0,                         Viet-Thi%Tran%NULL%0,                         Viet-Thi%Tran%NULL%0,                         Mathilde%Roumier%NULL%0,                         Amélie%Chabrol%NULL%0,                         Romain%Paule%NULL%0,                         Constance%Guillaud%NULL%0,                         Elena%Fois%NULL%0,                         Raphael%Lepeule%NULL%0,                         Tali-Anne%Szwebel%NULL%0,                         François-Xavier%Lescure%NULL%0,                         Frédéric%Schlemmer%NULL%0,                         Marie%Matignon%NULL%0,                         Mehdi%Khellaf%NULL%0,                         Etienne%Crickx%NULL%0,                         Benjamin%Terrier%NULL%0,                         Caroline%Morbieu%NULL%0,                         Paul%Legendre%NULL%0,                         Julien%Dang%NULL%0,                         Yoland%Schoindre%NULL%0,                         Jean-Michel%Pawlotsky%NULL%0,                         Marc%Michel%NULL%0,                         Elodie%Perrodeau%NULL%0,                         Nicolas%Carlier%NULL%0,                         Nicolas%Roche%NULL%0,                         Victoire%de Lastours%NULL%0,                         Clément%Ourghanlian%NULL%0,                         Solen%Kerneis%NULL%0,                         Philippe%Ménager%NULL%0,                         Luc%Mouthon%NULL%0,                         Etienne%Audureau%NULL%0,                         Philippe%Ravaud%NULL%0,                         Bertrand%Godeau%NULL%0,                         Sébastien%Gallien%NULL%0,                         Nathalie%Costedoat-Chalumeau%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ahmed%Hasan%coreGivesNoEmail%1,                        Amir%Lerman%coreGivesNoEmail%1,                        Charanjit%Rihal%coreGivesNoEmail%1,                        Charles%Cagin%coreGivesNoEmail%1,                        Derek%So%coreGivesNoEmail%1,                        Erin%Iturriaga%coreGivesNoEmail%1,                        Ivan%Chavez%coreGivesNoEmail%1,                        J.%Dawn Abbott%coreGivesNoEmail%1,                        Jang-Ho%Bae%coreGivesNoEmail%1,                        Jean-Francois%Tanguay%coreGivesNoEmail%1,                        Kent%Bailey%coreGivesNoEmail%1,                        Liewei%Wang%coreGivesNoEmail%1,                        Linnea%Baudhuin%coreGivesNoEmail%1,                        Malcolm%Bell%coreGivesNoEmail%1,                        Mandeep%Sidhu%coreGivesNoEmail%1,                        Michael%E. Farkouh%coreGivesNoEmail%1,                        Myung%Ho Jeong%coreGivesNoEmail%1,                        Nancy%Geller%coreGivesNoEmail%1,                        Naveen%L. Pereira%coreGivesNoEmail%1,                        Paul%Gordon%coreGivesNoEmail%1,                        Richard%Weinshilboum%coreGivesNoEmail%1,                        Robert%Welsh%coreGivesNoEmail%1,                        Ryan%Lennon%coreGivesNoEmail%1,                        Shaun%G. Goodman%coreGivesNoEmail%1,                        Verghese%Mathew%coreGivesNoEmail%1,                        Yi-Ping%Fu%coreGivesNoEmail%1,                        Yves%Rosenberg%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Joseph%Magagnoli%NULL%1,                         Siddharth%Narendran%NULL%1,                         Felipe%Pereira%NULL%1,                         Tammy H.%Cummings%NULL%1,                         James W.%Hardin%NULL%1,                         S. Scott%Sutton%NULL%1,                         Jayakrishna%Ambati%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ S.%Singh%null%1,                          A.% Khan%null%1,                          M.% Chowdhry%null%1,                          A. % Chatterjee%null%1,       S.%Singh%null%1,       A.% Khan%null%1,       M.% Chowdhry%null%1,       A. % Chatterjee%null%1]</t>
   </si>
 </sst>
 </file>
@@ -912,6 +996,9 @@
       <c r="I1" t="s">
         <v>53</v>
       </c>
+      <c r="J1" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -927,7 +1014,7 @@
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>173</v>
+        <v>202</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -940,6 +1027,9 @@
       </c>
       <c r="I2" t="s">
         <v>164</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="3">
@@ -956,7 +1046,7 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
@@ -969,6 +1059,9 @@
       </c>
       <c r="I3" t="s">
         <v>166</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="4">
@@ -985,7 +1078,7 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -998,6 +1091,9 @@
       </c>
       <c r="I4" t="s">
         <v>168</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="5">
@@ -1028,6 +1124,9 @@
       <c r="I5" t="s">
         <v>168</v>
       </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
@@ -1043,7 +1142,7 @@
         <v>93</v>
       </c>
       <c r="E6" t="s">
-        <v>176</v>
+        <v>123</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1055,7 +1154,10 @@
         <v>96</v>
       </c>
       <c r="I6" t="s">
-        <v>168</v>
+        <v>59</v>
+      </c>
+      <c r="J6" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="7">
@@ -1072,7 +1174,7 @@
         <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="F7" t="s">
         <v>39</v>
@@ -1085,6 +1187,9 @@
       </c>
       <c r="I7" t="s">
         <v>164</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="8">
@@ -1101,7 +1206,7 @@
         <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1114,6 +1219,9 @@
       </c>
       <c r="I8" t="s">
         <v>172</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/54.xlsx
+++ b/Covid_19_Dataset_and_References/References/54.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="217">
   <si>
     <t>Doi</t>
   </si>
@@ -683,6 +683,36 @@
   </si>
   <si>
     <t>[ S.%Singh%null%1,                          A.% Khan%null%1,                          M.% Chowdhry%null%1,                          A. % Chatterjee%null%1,       S.%Singh%null%1,       A.% Khan%null%1,       M.% Chowdhry%null%1,       A. % Chatterjee%null%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%3,                          Didier%Zanini%NULL%1,                          Vincent%Laforge%NULL%1,                          Sylvie%Arlotto%NULL%1,                          Stephanie%Gentile%NULL%1,                          Helene%Mendizabal%NULL%1,                          Michael%Finaud%NULL%1,                          David%Morel%NULL%1,                          Olivier%Quenette%NULL%1,                          Priscilla%Malfuson-Clot-Faybesse%NULL%1,                          Alain%Midejean%NULL%1,                          Phuc%Le-Dinh%NULL%1,                          Gérard%Daher%NULL%1,                          Berengere%Labarriere%NULL%1,                          Anne-Marie%Morel-Roux%NULL%1,                          Alain%Coquet%NULL%1,                          Patrick%Augier%NULL%1,                          Philippe%Parola%NULL%2,                          Eric%Chabriere%NULL%1,                          Didier%Raoult%NULL%2,                          Philippe%Gautret%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Mahévas%NULL%0,                          Viet-Thi%Tran%NULL%0,                          Viet-Thi%Tran%NULL%0,                          Mathilde%Roumier%NULL%0,                          Amélie%Chabrol%NULL%0,                          Romain%Paule%NULL%0,                          Constance%Guillaud%NULL%0,                          Elena%Fois%NULL%0,                          Raphael%Lepeule%NULL%0,                          Tali-Anne%Szwebel%NULL%0,                          François-Xavier%Lescure%NULL%0,                          Frédéric%Schlemmer%NULL%0,                          Marie%Matignon%NULL%0,                          Mehdi%Khellaf%NULL%0,                          Etienne%Crickx%NULL%0,                          Benjamin%Terrier%NULL%0,                          Caroline%Morbieu%NULL%0,                          Paul%Legendre%NULL%0,                          Julien%Dang%NULL%0,                          Yoland%Schoindre%NULL%0,                          Jean-Michel%Pawlotsky%NULL%0,                          Marc%Michel%NULL%0,                          Elodie%Perrodeau%NULL%0,                          Nicolas%Carlier%NULL%0,                          Nicolas%Roche%NULL%0,                          Victoire%de Lastours%NULL%0,                          Clément%Ourghanlian%NULL%0,                          Solen%Kerneis%NULL%0,                          Philippe%Ménager%NULL%0,                          Luc%Mouthon%NULL%0,                          Etienne%Audureau%NULL%0,                          Philippe%Ravaud%NULL%0,                          Bertrand%Godeau%NULL%0,                          Sébastien%Gallien%NULL%0,                          Nathalie%Costedoat-Chalumeau%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ahmed%Hasan%coreGivesNoEmail%1,                         Amir%Lerman%coreGivesNoEmail%1,                         Charanjit%Rihal%coreGivesNoEmail%1,                         Charles%Cagin%coreGivesNoEmail%1,                         Derek%So%coreGivesNoEmail%1,                         Erin%Iturriaga%coreGivesNoEmail%1,                         Ivan%Chavez%coreGivesNoEmail%1,                         J.%Dawn Abbott%coreGivesNoEmail%1,                         Jang-Ho%Bae%coreGivesNoEmail%1,                         Jean-Francois%Tanguay%coreGivesNoEmail%1,                         Kent%Bailey%coreGivesNoEmail%1,                         Liewei%Wang%coreGivesNoEmail%1,                         Linnea%Baudhuin%coreGivesNoEmail%1,                         Malcolm%Bell%coreGivesNoEmail%1,                         Mandeep%Sidhu%coreGivesNoEmail%1,                         Michael%E. Farkouh%coreGivesNoEmail%1,                         Myung%Ho Jeong%coreGivesNoEmail%1,                         Nancy%Geller%coreGivesNoEmail%1,                         Naveen%L. Pereira%coreGivesNoEmail%1,                         Paul%Gordon%coreGivesNoEmail%1,                         Richard%Weinshilboum%coreGivesNoEmail%1,                         Robert%Welsh%coreGivesNoEmail%1,                         Ryan%Lennon%coreGivesNoEmail%1,                         Shaun%G. Goodman%coreGivesNoEmail%1,                         Verghese%Mathew%coreGivesNoEmail%1,                         Yi-Ping%Fu%coreGivesNoEmail%1,                         Yves%Rosenberg%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Joseph%Magagnoli%NULL%1,                          Siddharth%Narendran%NULL%1,                          Felipe%Pereira%NULL%1,                          Tammy H.%Cummings%NULL%1,                          James W.%Hardin%NULL%1,                          S. Scott%Sutton%NULL%1,                          Jayakrishna%Ambati%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ S.%Singh%null%1,                           A.% Khan%null%1,                           M.% Chowdhry%null%1,                           A. % Chatterjee%null%1,        S.%Singh%null%1,        A.% Khan%null%1,        M.% Chowdhry%null%1,        A. % Chatterjee%null%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%3,                           Didier%Zanini%NULL%1,                           Vincent%Laforge%NULL%1,                           Sylvie%Arlotto%NULL%1,                           Stephanie%Gentile%NULL%1,                           Helene%Mendizabal%NULL%1,                           Michael%Finaud%NULL%1,                           David%Morel%NULL%1,                           Olivier%Quenette%NULL%1,                           Priscilla%Malfuson-Clot-Faybesse%NULL%1,                           Alain%Midejean%NULL%1,                           Phuc%Le-Dinh%NULL%1,                           Gérard%Daher%NULL%1,                           Berengere%Labarriere%NULL%1,                           Anne-Marie%Morel-Roux%NULL%1,                           Alain%Coquet%NULL%1,                           Patrick%Augier%NULL%1,                           Philippe%Parola%NULL%2,                           Eric%Chabriere%NULL%1,                           Didier%Raoult%NULL%2,                           Philippe%Gautret%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Mahévas%NULL%0,                           Viet-Thi%Tran%NULL%0,                           Viet-Thi%Tran%NULL%0,                           Mathilde%Roumier%NULL%0,                           Amélie%Chabrol%NULL%0,                           Romain%Paule%NULL%0,                           Constance%Guillaud%NULL%0,                           Elena%Fois%NULL%0,                           Raphael%Lepeule%NULL%0,                           Tali-Anne%Szwebel%NULL%0,                           François-Xavier%Lescure%NULL%0,                           Frédéric%Schlemmer%NULL%0,                           Marie%Matignon%NULL%0,                           Mehdi%Khellaf%NULL%0,                           Etienne%Crickx%NULL%0,                           Benjamin%Terrier%NULL%0,                           Caroline%Morbieu%NULL%0,                           Paul%Legendre%NULL%0,                           Julien%Dang%NULL%0,                           Yoland%Schoindre%NULL%0,                           Jean-Michel%Pawlotsky%NULL%0,                           Marc%Michel%NULL%0,                           Elodie%Perrodeau%NULL%0,                           Nicolas%Carlier%NULL%0,                           Nicolas%Roche%NULL%0,                           Victoire%de Lastours%NULL%0,                           Clément%Ourghanlian%NULL%0,                           Solen%Kerneis%NULL%0,                           Philippe%Ménager%NULL%0,                           Luc%Mouthon%NULL%0,                           Etienne%Audureau%NULL%0,                           Philippe%Ravaud%NULL%0,                           Bertrand%Godeau%NULL%0,                           Sébastien%Gallien%NULL%0,                           Nathalie%Costedoat-Chalumeau%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ahmed%Hasan%coreGivesNoEmail%1,                          Amir%Lerman%coreGivesNoEmail%1,                          Charanjit%Rihal%coreGivesNoEmail%1,                          Charles%Cagin%coreGivesNoEmail%1,                          Derek%So%coreGivesNoEmail%1,                          Erin%Iturriaga%coreGivesNoEmail%1,                          Ivan%Chavez%coreGivesNoEmail%1,                          J.%Dawn Abbott%coreGivesNoEmail%1,                          Jang-Ho%Bae%coreGivesNoEmail%1,                          Jean-Francois%Tanguay%coreGivesNoEmail%1,                          Kent%Bailey%coreGivesNoEmail%1,                          Liewei%Wang%coreGivesNoEmail%1,                          Linnea%Baudhuin%coreGivesNoEmail%1,                          Malcolm%Bell%coreGivesNoEmail%1,                          Mandeep%Sidhu%coreGivesNoEmail%1,                          Michael%E. Farkouh%coreGivesNoEmail%1,                          Myung%Ho Jeong%coreGivesNoEmail%1,                          Nancy%Geller%coreGivesNoEmail%1,                          Naveen%L. Pereira%coreGivesNoEmail%1,                          Paul%Gordon%coreGivesNoEmail%1,                          Richard%Weinshilboum%coreGivesNoEmail%1,                          Robert%Welsh%coreGivesNoEmail%1,                          Ryan%Lennon%coreGivesNoEmail%1,                          Shaun%G. Goodman%coreGivesNoEmail%1,                          Verghese%Mathew%coreGivesNoEmail%1,                          Yi-Ping%Fu%coreGivesNoEmail%1,                          Yves%Rosenberg%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Joseph%Magagnoli%NULL%1,                           Siddharth%Narendran%NULL%1,                           Felipe%Pereira%NULL%1,                           Tammy H.%Cummings%NULL%1,                           James W.%Hardin%NULL%1,                           S. Scott%Sutton%NULL%1,                           Jayakrishna%Ambati%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ S.%Singh%null%1,                            A.% Khan%null%1,                            M.% Chowdhry%null%1,                            A. % Chatterjee%null%1,         S.%Singh%null%1,         A.% Khan%null%1,         M.% Chowdhry%null%1,         A. % Chatterjee%null%1]</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +1044,7 @@
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -1046,7 +1076,7 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
@@ -1078,7 +1108,7 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1142,7 +1172,7 @@
         <v>93</v>
       </c>
       <c r="E6" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1174,7 +1204,7 @@
         <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="F7" t="s">
         <v>39</v>
@@ -1206,7 +1236,7 @@
         <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
